--- a/SMP_PE_ani_e&p.xlsx
+++ b/SMP_PE_ani_e&p.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\My Paper\Geotexile and Geomembrane\anal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -593,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1:AO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -895,8 +894,9 @@
         <f t="shared" ref="AO2" si="4">(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
         <v>16791.488429039899</v>
       </c>
-      <c r="AS2">
-        <v>0</v>
+      <c r="AS2" s="1">
+        <f>(1+2*AM3)*AK3*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
+        <v>2.5188497992038585E-4</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1013,8 +1013,8 @@
         <v>0.6038547705358035</v>
       </c>
       <c r="AI3" s="1">
-        <f>-AG3/AH3</f>
-        <v>7.5018999588418039E-2</v>
+        <f>-AD3/AE3</f>
+        <v>6.698676827069619E-2</v>
       </c>
       <c r="AJ3" s="1">
         <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
@@ -1033,50 +1033,50 @@
       </c>
       <c r="AN3" s="1">
         <f t="shared" ref="AN3:AN18" si="9">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.1528159180293685</v>
+        <v>-0.13213408248461755</v>
       </c>
       <c r="AO3" s="1">
         <v>37174.366906725903</v>
       </c>
       <c r="AP3" s="1">
-        <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
-        <v>2.0090750205753558</v>
+        <f>AJ3^0.25</f>
+        <v>2.096894112417417</v>
       </c>
       <c r="AQ3" s="1">
         <f>(2*AP3+3)/(3-AP3)</f>
-        <v>7.0824231772072439</v>
+        <v>7.9656088214539622</v>
       </c>
       <c r="AR3" s="1">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>1.5740082678149562E-4</v>
+        <f>(1+2*AM3)*AK3*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
+        <v>2.5188497992038585E-4</v>
       </c>
       <c r="AS3" s="1">
-        <f>(AS2+AR3)</f>
-        <v>1.5740082678149562E-4</v>
+        <f t="shared" ref="AS3:AS18" si="10">(1+2*AM4)*AK4*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
+        <v>-0.14344569906364341</v>
       </c>
       <c r="AT3" s="1">
-        <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.28232444036357118</v>
+        <f>(1-AM3)*(AK3)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
+        <v>0.45179741076412522</v>
       </c>
       <c r="AU3" s="1">
-        <f>AU2+AT3</f>
-        <v>0.28232444036357118</v>
+        <f>(1-AM3)*(AK3)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
+        <v>0.45179741076412522</v>
       </c>
       <c r="AV3" s="1">
-        <f t="shared" ref="AV3:AV18" si="10">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-19.305860986745682</v>
+        <f t="shared" ref="AV3:AV18" si="11">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-16.693039972242712</v>
       </c>
       <c r="AW3" s="1">
-        <f t="shared" ref="AW3:AW18" si="11">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-136.7322773084687</v>
+        <f t="shared" ref="AW3:AW18" si="12">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-132.97022645978015</v>
       </c>
       <c r="AX3" s="1">
-        <f t="shared" ref="AX3:AX18" si="12">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>595.85611938502973</v>
+        <f t="shared" ref="AX3:AX18" si="13">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
+        <v>598.4689403995327</v>
       </c>
       <c r="AY3" s="1">
-        <f t="shared" ref="AY3:AY18" si="13">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6179.3681378279798</v>
+        <f t="shared" ref="AY3:AY18" si="14">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
+        <v>6183.1301886766687</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
@@ -1189,12 +1189,12 @@
         <f t="shared" si="8"/>
         <v>0.94507078234071229</v>
       </c>
-      <c r="AI4">
-        <f t="shared" ref="AI4:AI18" si="14">-AG4/AH4</f>
-        <v>0.12878109026245968</v>
+      <c r="AI4" s="1">
+        <f t="shared" ref="AI4:AI18" si="15">-AD4/AE4</f>
+        <v>0.10469032681343469</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ18" si="15">(1.35*(AK4/3255000)^-0.0723)^4</f>
+        <f t="shared" ref="AJ4:AJ18" si="16">(1.35*(AK4/3255000)^-0.0723)^4</f>
         <v>13.52826152917463</v>
       </c>
       <c r="AK4">
@@ -1206,55 +1206,55 @@
         <v>37030.15371405</v>
       </c>
       <c r="AM4">
-        <f t="shared" ref="AM4:AM18" si="16">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.56727861631816423</v>
+        <f t="shared" ref="AM4:AM18" si="17">(-2*AI4-3)/(-2*AI4+6)</f>
+        <v>-0.55423789091524689</v>
       </c>
       <c r="AN4">
         <f t="shared" si="9"/>
-        <v>-0.18556598304462929</v>
+        <v>-0.16766983133557156</v>
       </c>
       <c r="AO4" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP4">
-        <f t="shared" ref="AP4:AP18" si="17">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
-        <v>1.8443558894483842</v>
+      <c r="AP4" s="1">
+        <f t="shared" ref="AP4:AP18" si="18">AJ4^0.25</f>
+        <v>1.9178317211030547</v>
       </c>
       <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ18" si="18">(2*AP4+3)/(3-AP4)</f>
-        <v>5.7878647222146027</v>
+        <f t="shared" ref="AQ4:AQ18" si="19">(2*AP4+3)/(3-AP4)</f>
+        <v>6.316636308332475</v>
       </c>
       <c r="AR4">
-        <f t="shared" ref="AR4:AR18" si="19">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>-0.11893911997874784</v>
-      </c>
-      <c r="AS4">
-        <f t="shared" ref="AS4:AS18" si="20">AS3+AR4</f>
-        <v>-0.11878171915196635</v>
+        <f t="shared" ref="AR4:AR18" si="20">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
+        <v>-0.10171026625639185</v>
+      </c>
+      <c r="AS4" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.44709316450860193</v>
       </c>
       <c r="AT4">
         <f t="shared" ref="AT4:AT18" si="21">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.92357596706431211</v>
-      </c>
-      <c r="AU4">
-        <f>AU3+AT4</f>
-        <v>1.2059004074278832</v>
+        <v>0.97153451853910511</v>
+      </c>
+      <c r="AU4" s="1">
+        <f t="shared" ref="AU4:AU18" si="22">(1-AM4)*(AK4)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <v>1.3701905747154026</v>
       </c>
       <c r="AV4">
-        <f t="shared" si="10"/>
-        <v>-35.395475291860613</v>
+        <f t="shared" si="11"/>
+        <v>-32.717110573685794</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="11"/>
-        <v>-204.86422276777867</v>
+        <f t="shared" si="12"/>
+        <v>-206.6620885534721</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="12"/>
-        <v>2183.0089568655039</v>
+        <f t="shared" si="13"/>
+        <v>2185.687321583679</v>
       </c>
       <c r="AY4">
-        <f t="shared" si="13"/>
-        <v>17466.077691577491</v>
+        <f t="shared" si="14"/>
+        <v>17464.279825791797</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
@@ -1367,12 +1367,12 @@
         <f t="shared" si="8"/>
         <v>1.0333932879906844</v>
       </c>
-      <c r="AI5">
-        <f t="shared" si="14"/>
-        <v>0.28969974695310946</v>
+      <c r="AI5" s="1">
+        <f t="shared" si="15"/>
+        <v>0.17872746124239833</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.151610876649848</v>
       </c>
       <c r="AK5">
@@ -1384,55 +1384,55 @@
         <v>74684.303747600003</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="16"/>
-        <v>-0.66033264946979509</v>
+        <f t="shared" si="17"/>
+        <v>-0.59502491807532221</v>
       </c>
       <c r="AN5">
         <f t="shared" si="9"/>
-        <v>-0.20174072655267064</v>
+        <v>-0.18553245038084784</v>
       </c>
       <c r="AO5" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP5">
-        <f t="shared" si="17"/>
-        <v>1.7322564764106896</v>
+      <c r="AP5" s="1">
+        <f t="shared" si="18"/>
+        <v>1.8274032867570487</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="18"/>
-        <v>5.0992277479901205</v>
+        <f t="shared" si="19"/>
+        <v>5.6752730912143381</v>
       </c>
       <c r="AR5">
-        <f t="shared" si="19"/>
-        <v>-0.32934333232111207</v>
-      </c>
-      <c r="AS5">
         <f t="shared" si="20"/>
-        <v>-0.44812505147307841</v>
+        <v>-0.21786275933698146</v>
+      </c>
+      <c r="AS5" s="1">
+        <f t="shared" si="10"/>
+        <v>-0.73677286041067191</v>
       </c>
       <c r="AT5">
         <f t="shared" si="21"/>
-        <v>1.1368437003654661</v>
-      </c>
-      <c r="AU5">
-        <f>AU4+AT5</f>
-        <v>2.3427441077933491</v>
+        <v>1.2189663402732844</v>
+      </c>
+      <c r="AU5" s="1">
+        <f t="shared" si="22"/>
+        <v>2.5015359217923097</v>
       </c>
       <c r="AV5">
-        <f t="shared" si="10"/>
-        <v>-46.234026759411329</v>
+        <f t="shared" si="11"/>
+        <v>-46.724718272836888</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="11"/>
-        <v>-235.75783215290789</v>
+        <f t="shared" si="12"/>
+        <v>-265.17553630840212</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="12"/>
-        <v>9090.2575864268474</v>
+        <f t="shared" si="13"/>
+        <v>9089.7668949134222</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="13"/>
-        <v>57476.136822474575</v>
+        <f t="shared" si="14"/>
+        <v>57446.719118319081</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
@@ -1545,12 +1545,12 @@
         <f t="shared" si="8"/>
         <v>1.0340107595814394</v>
       </c>
-      <c r="AI6">
-        <f t="shared" si="14"/>
-        <v>0.24886395341707321</v>
+      <c r="AI6" s="1">
+        <f t="shared" si="15"/>
+        <v>0.19878146460548027</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.8394279946711976</v>
       </c>
       <c r="AK6">
@@ -1562,55 +1562,55 @@
         <v>116883.154572</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="16"/>
-        <v>-0.63568792084610481</v>
+        <f t="shared" si="17"/>
+        <v>-0.60644374694108827</v>
       </c>
       <c r="AN6">
         <f t="shared" si="9"/>
-        <v>-0.22736895453401912</v>
+        <v>-0.19992815433883163</v>
       </c>
       <c r="AO6" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP6">
-        <f t="shared" si="17"/>
-        <v>1.6671504107658244</v>
+      <c r="AP6" s="1">
+        <f t="shared" si="18"/>
+        <v>1.7710974712384502</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="18"/>
-        <v>4.7524498433249249</v>
+        <f t="shared" si="19"/>
+        <v>5.3236076819452256</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="19"/>
-        <v>-0.30023072452589122</v>
-      </c>
-      <c r="AS6">
         <f t="shared" si="20"/>
-        <v>-0.74835577599896963</v>
+        <v>-0.25886959282818339</v>
+      </c>
+      <c r="AS6" s="1">
+        <f t="shared" si="10"/>
+        <v>-1.1738933064716637</v>
       </c>
       <c r="AT6">
         <f t="shared" si="21"/>
-        <v>1.2064050273393028</v>
-      </c>
-      <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="22">AU5+AT6</f>
-        <v>3.5491491351326516</v>
+        <v>1.3022823498255214</v>
+      </c>
+      <c r="AU6" s="1">
+        <f t="shared" si="22"/>
+        <v>3.706446483191673</v>
       </c>
       <c r="AV6">
-        <f t="shared" si="10"/>
-        <v>-50.948872268298175</v>
+        <f t="shared" si="11"/>
+        <v>-46.86090850377564</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="11"/>
-        <v>-242.13196002905522</v>
+        <f t="shared" si="12"/>
+        <v>-249.46909249363236</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="12"/>
-        <v>19258.022604061596</v>
+        <f t="shared" si="13"/>
+        <v>19262.110567826119</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="13"/>
-        <v>109341.55427861116</v>
+        <f t="shared" si="14"/>
+        <v>109334.21714614659</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
@@ -1723,12 +1723,12 @@
         <f t="shared" si="8"/>
         <v>1.0917898742341849</v>
       </c>
-      <c r="AI7">
-        <f t="shared" si="14"/>
-        <v>0.36833322513576033</v>
+      <c r="AI7" s="1">
+        <f t="shared" si="15"/>
+        <v>0.23809968777422619</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.9826393000799953</v>
       </c>
       <c r="AK7">
@@ -1740,55 +1740,55 @@
         <v>161586.88985345</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="16"/>
-        <v>-0.7099429315978435</v>
+        <f t="shared" si="17"/>
+        <v>-0.62931296979850715</v>
       </c>
       <c r="AN7">
         <f t="shared" si="9"/>
-        <v>-0.22682266424719957</v>
+        <v>-0.20782934090147454</v>
       </c>
       <c r="AO7" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP7">
-        <f t="shared" si="17"/>
-        <v>1.6235078267812537</v>
+      <c r="AP7" s="1">
+        <f t="shared" si="18"/>
+        <v>1.7312149356228954</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="18"/>
-        <v>4.5383590078501364</v>
+        <f t="shared" si="19"/>
+        <v>5.0934000191895752</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="19"/>
-        <v>-0.4537995045575442</v>
-      </c>
-      <c r="AS7">
         <f t="shared" si="20"/>
-        <v>-1.2021552805565139</v>
+        <v>-0.31721630454767485</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="10"/>
+        <v>-1.6525850645610833</v>
       </c>
       <c r="AT7">
         <f t="shared" si="21"/>
-        <v>1.2320352159115777</v>
-      </c>
-      <c r="AU7">
+        <v>1.3322835805163671</v>
+      </c>
+      <c r="AU7" s="1">
         <f t="shared" si="22"/>
-        <v>4.7811843510442298</v>
+        <v>4.9302597472735377</v>
       </c>
       <c r="AV7">
-        <f t="shared" si="10"/>
-        <v>-57.332670713567595</v>
+        <f t="shared" si="11"/>
+        <v>-58.498006412002518</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="11"/>
-        <v>-260.1962425770252</v>
+        <f t="shared" si="12"/>
+        <v>-297.95374698144565</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="12"/>
-        <v>31140.29181472494</v>
+        <f t="shared" si="13"/>
+        <v>31139.126479026505</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="13"/>
-        <v>165823.71712654593</v>
+        <f t="shared" si="14"/>
+        <v>165785.9596221415</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
@@ -1901,12 +1901,12 @@
         <f t="shared" si="8"/>
         <v>1.1143032765262788</v>
       </c>
-      <c r="AI8">
-        <f t="shared" si="14"/>
-        <v>0.3878220877489264</v>
+      <c r="AI8" s="1">
+        <f t="shared" si="15"/>
+        <v>0.26675376627979375</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.3527794370607289</v>
       </c>
       <c r="AK8">
@@ -1918,55 +1918,55 @@
         <v>209411.00116514997</v>
       </c>
       <c r="AM8">
-        <f t="shared" si="16"/>
-        <v>-0.72270042514909505</v>
+        <f t="shared" si="17"/>
+        <v>-0.64639392692954534</v>
       </c>
       <c r="AN8">
         <f t="shared" si="9"/>
-        <v>-0.23533692193396238</v>
+        <v>-0.21435775381005986</v>
       </c>
       <c r="AO8" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP8">
-        <f t="shared" si="17"/>
-        <v>1.5909360061713129</v>
+      <c r="AP8" s="1">
+        <f t="shared" si="18"/>
+        <v>1.7000345723760852</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="18"/>
-        <v>4.3872187774419942</v>
+        <f t="shared" si="19"/>
+        <v>4.9232610412188098</v>
       </c>
       <c r="AR8">
-        <f t="shared" si="19"/>
-        <v>-0.49344361910440676</v>
-      </c>
-      <c r="AS8">
         <f t="shared" si="20"/>
-        <v>-1.6955988996609206</v>
+        <v>-0.36732674544007876</v>
+      </c>
+      <c r="AS8" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.1503569073943143</v>
       </c>
       <c r="AT8">
         <f t="shared" si="21"/>
-        <v>1.272345321971087</v>
-      </c>
-      <c r="AU8">
+        <v>1.3770255264354745</v>
+      </c>
+      <c r="AU8" s="1">
         <f t="shared" si="22"/>
-        <v>6.0535296730153165</v>
+        <v>6.1951705035261329</v>
       </c>
       <c r="AV8">
-        <f t="shared" si="10"/>
-        <v>-61.344674414788791</v>
+        <f t="shared" si="11"/>
+        <v>-61.775778454985193</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="11"/>
-        <v>-269.13250748862686</v>
+        <f t="shared" si="12"/>
+        <v>-304.13828335839293</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="12"/>
-        <v>44075.742066235405</v>
+        <f t="shared" si="13"/>
+        <v>44075.31096219521</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="13"/>
-        <v>224538.70594431096</v>
+        <f t="shared" si="14"/>
+        <v>224503.7001684412</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -2079,12 +2079,12 @@
         <f t="shared" si="8"/>
         <v>1.1319809260132168</v>
       </c>
-      <c r="AI9">
-        <f t="shared" si="14"/>
-        <v>0.42426694752232513</v>
+      <c r="AI9" s="1">
+        <f t="shared" si="15"/>
+        <v>0.29239247277710401</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.9097214262736575</v>
       </c>
       <c r="AK9">
@@ -2096,55 +2096,55 @@
         <v>253290.84840685001</v>
       </c>
       <c r="AM9">
-        <f t="shared" si="16"/>
-        <v>-0.74707545709028933</v>
+        <f t="shared" si="17"/>
+        <v>-0.66198385650652336</v>
       </c>
       <c r="AN9">
         <f t="shared" si="9"/>
-        <v>-0.23898524904918481</v>
+        <v>-0.21870351127642934</v>
       </c>
       <c r="AO9" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP9">
-        <f t="shared" si="17"/>
-        <v>1.5660912330976451</v>
+      <c r="AP9" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6770279356474203</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="18"/>
-        <v>4.2765499505540543</v>
+        <f t="shared" si="19"/>
+        <v>4.8028647335076666</v>
       </c>
       <c r="AR9">
-        <f t="shared" si="19"/>
-        <v>-0.49515237919887145</v>
-      </c>
-      <c r="AS9">
         <f t="shared" si="20"/>
-        <v>-2.1907512788597918</v>
+        <v>-0.36935379147561059</v>
+      </c>
+      <c r="AS9" s="1">
+        <f t="shared" si="10"/>
+        <v>-2.6320773027980722</v>
       </c>
       <c r="AT9">
         <f t="shared" si="21"/>
-        <v>1.1670774310619996</v>
-      </c>
-      <c r="AU9">
+        <v>1.2632123801530808</v>
+      </c>
+      <c r="AU9" s="1">
         <f t="shared" si="22"/>
-        <v>7.2206071040773159</v>
+        <v>7.3543511122927194</v>
       </c>
       <c r="AV9">
-        <f t="shared" si="10"/>
-        <v>-64.505664173597168</v>
+        <f t="shared" si="11"/>
+        <v>-65.754966636107071</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="11"/>
-        <v>-275.86169493205341</v>
+        <f t="shared" si="12"/>
+        <v>-315.81221030953196</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="12"/>
-        <v>58081.62352725595</v>
+        <f t="shared" si="13"/>
+        <v>58080.374224793435</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="13"/>
-        <v>285992.71085090889</v>
+        <f t="shared" si="14"/>
+        <v>285952.76033553138</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -2257,12 +2257,12 @@
         <f t="shared" si="8"/>
         <v>1.1334847981665774</v>
       </c>
-      <c r="AI10">
-        <f t="shared" si="14"/>
-        <v>0.4293248471727919</v>
+      <c r="AI10" s="1">
+        <f t="shared" si="15"/>
+        <v>0.31158299001978484</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.5696355831523254</v>
       </c>
       <c r="AK10">
@@ -2274,55 +2274,55 @@
         <v>294678.32969245</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="16"/>
-        <v>-0.75051289349062078</v>
+        <f t="shared" si="17"/>
+        <v>-0.67384746610910518</v>
       </c>
       <c r="AN10">
         <f t="shared" si="9"/>
-        <v>-0.24505255976836812</v>
+        <v>-0.22234165345089188</v>
       </c>
       <c r="AO10" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP10">
-        <f t="shared" si="17"/>
-        <v>1.5470482432552271</v>
+      <c r="AP10" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6587034312572033</v>
       </c>
       <c r="AQ10">
-        <f t="shared" si="18"/>
-        <v>4.1942868771939201</v>
+        <f t="shared" si="19"/>
+        <v>4.7099254629688199</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="19"/>
-        <v>-0.47185493459602085</v>
-      </c>
-      <c r="AS10">
         <f t="shared" si="20"/>
-        <v>-2.6626062134558128</v>
+        <v>-0.3710695971258588</v>
+      </c>
+      <c r="AS10" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.0884695398661051</v>
       </c>
       <c r="AT10">
         <f t="shared" si="21"/>
-        <v>1.0990627206957622</v>
-      </c>
-      <c r="AU10">
+        <v>1.1909173767871495</v>
+      </c>
+      <c r="AU10" s="1">
         <f t="shared" si="22"/>
-        <v>8.3196698247730776</v>
+        <v>8.447435794331847</v>
       </c>
       <c r="AV10">
-        <f t="shared" si="10"/>
-        <v>-66.405282280144675</v>
+        <f t="shared" si="11"/>
+        <v>-66.405675794773231</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="11"/>
-        <v>-278.52280404396873</v>
+        <f t="shared" si="12"/>
+        <v>-312.76578331145458</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="12"/>
-        <v>71380.84994451706</v>
+        <f t="shared" si="13"/>
+        <v>71380.849551002437</v>
       </c>
       <c r="AY10">
-        <f t="shared" si="13"/>
-        <v>342872.97963066166</v>
+        <f t="shared" si="14"/>
+        <v>342838.73665139417</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -2435,12 +2435,12 @@
         <f t="shared" si="8"/>
         <v>1.1503426559551091</v>
       </c>
-      <c r="AI11">
-        <f t="shared" si="14"/>
-        <v>0.43167352070841503</v>
+      <c r="AI11" s="1">
+        <f t="shared" si="15"/>
+        <v>0.32653663827628593</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.303439964180833</v>
       </c>
       <c r="AK11">
@@ -2452,55 +2452,55 @@
         <v>332296.6699485</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="16"/>
-        <v>-0.75211369593527055</v>
+        <f t="shared" si="17"/>
+        <v>-0.68320990084510735</v>
       </c>
       <c r="AN11">
         <f t="shared" si="9"/>
-        <v>-0.25028733026887784</v>
+        <v>-0.22536352828122383</v>
       </c>
       <c r="AO11" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP11">
-        <f t="shared" si="17"/>
-        <v>1.5317723436675272</v>
+      <c r="AP11" s="1">
+        <f t="shared" si="18"/>
+        <v>1.643924492236746</v>
       </c>
       <c r="AQ11">
-        <f t="shared" si="18"/>
-        <v>4.129839579838289</v>
+        <f t="shared" si="19"/>
+        <v>4.6367985768320761</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="19"/>
-        <v>-0.43821882262410972</v>
-      </c>
-      <c r="AS11">
         <f t="shared" si="20"/>
-        <v>-3.1008250360799225</v>
+        <v>-0.35959908532236984</v>
+      </c>
+      <c r="AS11" s="1">
+        <f t="shared" si="10"/>
+        <v>-3.5879995235852236</v>
       </c>
       <c r="AT11">
         <f t="shared" si="21"/>
-        <v>1.0151626208273172</v>
-      </c>
-      <c r="AU11">
+        <v>1.1012518755035057</v>
+      </c>
+      <c r="AU11" s="1">
         <f t="shared" si="22"/>
-        <v>9.3348324456003944</v>
+        <v>9.4582634162262647</v>
       </c>
       <c r="AV11">
-        <f t="shared" si="10"/>
-        <v>-68.916330165703627</v>
+        <f t="shared" si="11"/>
+        <v>-67.738538567365552</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="11"/>
-        <v>-284.61338801552625</v>
+        <f t="shared" si="12"/>
+        <v>-314.08995922584523</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="12"/>
-        <v>84256.071413104146</v>
+        <f t="shared" si="13"/>
+        <v>84257.249204702486</v>
       </c>
       <c r="AY11">
-        <f t="shared" si="13"/>
-        <v>396879.79354854475</v>
+        <f t="shared" si="14"/>
+        <v>396850.31697733444</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -2613,12 +2613,12 @@
         <f t="shared" si="8"/>
         <v>1.1548114866024992</v>
       </c>
-      <c r="AI12">
-        <f t="shared" si="14"/>
-        <v>0.46231267287616296</v>
+      <c r="AI12" s="1">
+        <f t="shared" si="15"/>
+        <v>0.34162324274214445</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.06542338325524</v>
       </c>
       <c r="AK12">
@@ -2630,55 +2630,55 @@
         <v>372704.62721100001</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="16"/>
-        <v>-0.77326810592548778</v>
+        <f t="shared" si="17"/>
+        <v>-0.69276231734804916</v>
       </c>
       <c r="AN12">
         <f t="shared" si="9"/>
-        <v>-0.25056484511047539</v>
+        <v>-0.22797878523303453</v>
       </c>
       <c r="AO12" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP12">
-        <f t="shared" si="17"/>
-        <v>1.518649905691144</v>
+      <c r="AP12" s="1">
+        <f t="shared" si="18"/>
+        <v>1.630363889996677</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="18"/>
-        <v>4.0755388173104841</v>
+        <f t="shared" si="19"/>
+        <v>4.571088433100793</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="19"/>
-        <v>-0.48541830727619434</v>
-      </c>
-      <c r="AS12">
         <f t="shared" si="20"/>
-        <v>-3.5862433433561169</v>
+        <v>-0.38839030100637473</v>
+      </c>
+      <c r="AS12" s="1">
+        <f t="shared" si="10"/>
+        <v>-4.1182482565742582</v>
       </c>
       <c r="AT12">
         <f t="shared" si="21"/>
-        <v>1.049978371253129</v>
-      </c>
-      <c r="AU12">
+        <v>1.13689659371195</v>
+      </c>
+      <c r="AU12" s="1">
         <f t="shared" si="22"/>
-        <v>10.384810816853523</v>
+        <v>10.502796867054588</v>
       </c>
       <c r="AV12">
-        <f t="shared" si="10"/>
-        <v>-70.359341836882663</v>
+        <f t="shared" si="11"/>
+        <v>-70.682001499342462</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="11"/>
-        <v>-286.75222881663279</v>
+        <f t="shared" si="12"/>
+        <v>-323.09367948205715</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="12"/>
-        <v>96418.183666751502</v>
+        <f t="shared" si="13"/>
+        <v>96417.861007089043</v>
       </c>
       <c r="AY12">
-        <f t="shared" si="13"/>
-        <v>447111.18667400663</v>
+        <f t="shared" si="14"/>
+        <v>447074.8452233412</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -2791,12 +2791,12 @@
         <f t="shared" si="8"/>
         <v>1.202513837831134</v>
       </c>
-      <c r="AI13">
-        <f t="shared" si="14"/>
-        <v>0.54450903630834835</v>
+      <c r="AI13" s="1">
+        <f t="shared" si="15"/>
+        <v>0.3626634553043469</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.8939868355534699</v>
       </c>
       <c r="AK13">
@@ -2808,55 +2808,55 @@
         <v>403312.17996999994</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="16"/>
-        <v>-0.83262739164577426</v>
+        <f t="shared" si="17"/>
+        <v>-0.70626688089945577</v>
       </c>
       <c r="AN13">
         <f t="shared" si="9"/>
-        <v>-0.24226450108935621</v>
+        <v>-0.2286112279893871</v>
       </c>
       <c r="AO13" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP13">
-        <f t="shared" si="17"/>
-        <v>1.5077885627325758</v>
+      <c r="AP13" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6203827546428546</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="18"/>
-        <v>4.0313168598151412</v>
+        <f t="shared" si="19"/>
+        <v>4.5235484916471487</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="19"/>
-        <v>-0.46818294318063036</v>
-      </c>
-      <c r="AS13">
         <f t="shared" si="20"/>
-        <v>-4.0544262865367475</v>
+        <v>-0.33534312481130202</v>
+      </c>
+      <c r="AS13" s="1">
+        <f t="shared" si="10"/>
+        <v>-4.4836620812594985</v>
       </c>
       <c r="AT13">
         <f t="shared" si="21"/>
-        <v>0.85982584670184348</v>
-      </c>
-      <c r="AU13">
+        <v>0.92466753930274659</v>
+      </c>
+      <c r="AU13" s="1">
         <f t="shared" si="22"/>
-        <v>11.244636663555367</v>
+        <v>11.355564494686204</v>
       </c>
       <c r="AV13">
-        <f t="shared" si="10"/>
-        <v>-73.80592460395016</v>
+        <f t="shared" si="11"/>
+        <v>-80.216079868143424</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="11"/>
-        <v>-297.53506821014946</v>
+        <f t="shared" si="12"/>
+        <v>-362.86132709338733</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="12"/>
-        <v>109209.16942231833</v>
+        <f t="shared" si="13"/>
+        <v>109202.75926705413</v>
       </c>
       <c r="AY13">
-        <f t="shared" si="13"/>
-        <v>499244.60947494529</v>
+        <f t="shared" si="14"/>
+        <v>499179.28321606206</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -2969,12 +2969,12 @@
         <f t="shared" si="8"/>
         <v>1.1653526191368506</v>
       </c>
-      <c r="AI14">
-        <f t="shared" si="14"/>
-        <v>0.45577204355848155</v>
+      <c r="AI14" s="1">
+        <f t="shared" si="15"/>
+        <v>0.37116632417362727</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.7607788586618058</v>
       </c>
       <c r="AK14">
@@ -2986,55 +2986,55 @@
         <v>428853.21413350001</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="16"/>
-        <v>-0.76870943840029182</v>
+        <f t="shared" si="17"/>
+        <v>-0.71178574033803288</v>
       </c>
       <c r="AN14">
         <f t="shared" si="9"/>
-        <v>-0.25874620982834956</v>
+        <v>-0.23016513275475886</v>
       </c>
       <c r="AO14" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP14">
-        <f t="shared" si="17"/>
-        <v>1.4995276395959829</v>
+      <c r="AP14" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6124979926182434</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="18"/>
-        <v>3.9981111531948916</v>
+        <f t="shared" si="19"/>
+        <v>4.4864771021003254</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="19"/>
-        <v>-0.33058992975457674</v>
-      </c>
-      <c r="AS14">
         <f t="shared" si="20"/>
-        <v>-4.3850162162913247</v>
+        <v>-0.29252058132411635</v>
+      </c>
+      <c r="AS14" s="1">
+        <f t="shared" si="10"/>
+        <v>-4.753325914407565</v>
       </c>
       <c r="AT14">
         <f t="shared" si="21"/>
-        <v>0.72534051710031588</v>
-      </c>
-      <c r="AU14">
+        <v>0.78811185787231819</v>
+      </c>
+      <c r="AU14" s="1">
         <f t="shared" si="22"/>
-        <v>11.969977180655683</v>
+        <v>12.0799269471497</v>
       </c>
       <c r="AV14">
-        <f t="shared" si="10"/>
-        <v>-73.075519871729767</v>
+        <f t="shared" si="11"/>
+        <v>-69.817187869402062</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="11"/>
-        <v>-292.16405102467763</v>
+        <f t="shared" si="12"/>
+        <v>-313.23321470910889</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="12"/>
-        <v>119764.49630947626</v>
+        <f t="shared" si="13"/>
+        <v>119767.75464147859</v>
       </c>
       <c r="AY14">
-        <f t="shared" si="13"/>
-        <v>541798.90324027929</v>
+        <f t="shared" si="14"/>
+        <v>541777.83407659491</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.25">
@@ -3147,12 +3147,12 @@
         <f t="shared" si="8"/>
         <v>1.2752660002220573</v>
       </c>
-      <c r="AI15">
-        <f t="shared" si="14"/>
-        <v>0.63313834748562525</v>
+      <c r="AI15" s="1">
+        <f t="shared" si="15"/>
+        <v>0.39496796605094125</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.7710533255857257</v>
       </c>
       <c r="AK15">
@@ -3164,55 +3164,55 @@
         <v>414015.90840900003</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="16"/>
-        <v>-0.90125180963557405</v>
+        <f t="shared" si="17"/>
+        <v>-0.72742597455828339</v>
       </c>
       <c r="AN15">
         <f t="shared" si="9"/>
-        <v>-0.23329065237838373</v>
+        <v>-0.2268331433044945</v>
       </c>
       <c r="AO15" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP15">
-        <f t="shared" si="17"/>
-        <v>1.4961981301422862</v>
+      <c r="AP15" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6131102787265272</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="18"/>
-        <v>3.9848309676936089</v>
+        <f t="shared" si="19"/>
+        <v>4.4893407615250052</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="19"/>
-        <v>3.7570783926297709E-2</v>
-      </c>
-      <c r="AS15">
         <f t="shared" si="20"/>
-        <v>-4.3474454323650269</v>
+        <v>2.5024925770130362E-2</v>
+      </c>
+      <c r="AS15" s="1">
+        <f t="shared" si="10"/>
+        <v>-5.1806276788023444</v>
       </c>
       <c r="AT15">
         <f t="shared" si="21"/>
-        <v>-5.9340559729958095E-2</v>
-      </c>
-      <c r="AU15">
+        <v>-6.335938081343731E-2</v>
+      </c>
+      <c r="AU15" s="1">
         <f t="shared" si="22"/>
-        <v>11.910636620925725</v>
+        <v>12.034712490568165</v>
       </c>
       <c r="AV15">
-        <f t="shared" si="10"/>
-        <v>-78.639269065837425</v>
+        <f t="shared" si="11"/>
+        <v>-91.209972126859455</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="11"/>
-        <v>-313.36419465033902</v>
+        <f t="shared" si="12"/>
+        <v>-409.47264572666978</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="12"/>
-        <v>128855.68739666708</v>
+        <f t="shared" si="13"/>
+        <v>128843.11669360606</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="13"/>
-        <v>578147.54006588378</v>
+        <f t="shared" si="14"/>
+        <v>578051.43161480746</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.25">
@@ -3325,12 +3325,12 @@
         <f t="shared" si="8"/>
         <v>1.4916093513860602</v>
       </c>
-      <c r="AI16">
-        <f t="shared" si="14"/>
-        <v>0.97414449812521631</v>
+      <c r="AI16" s="1">
+        <f t="shared" si="15"/>
+        <v>0.45060405058406117</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.8769010888392366</v>
       </c>
       <c r="AK16">
@@ -3342,55 +3342,55 @@
         <v>376239.58324000001</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="16"/>
-        <v>-1.2212837963199121</v>
+        <f t="shared" si="17"/>
+        <v>-0.76512400948583148</v>
       </c>
       <c r="AN16">
         <f t="shared" si="9"/>
-        <v>-0.18607119346244455</v>
+        <v>-0.21763406747489411</v>
       </c>
       <c r="AO16" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP16">
-        <f t="shared" si="17"/>
-        <v>1.4993617521296954</v>
+      <c r="AP16" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6193778492942361</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="18"/>
-        <v>3.9974480943510118</v>
+        <f t="shared" si="19"/>
+        <v>4.5188002346617901</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="19"/>
-        <v>0.61852476994775518</v>
-      </c>
-      <c r="AS16">
         <f t="shared" si="20"/>
-        <v>-3.7289206624172717</v>
+        <v>0.2854538035205183</v>
+      </c>
+      <c r="AS16" s="1">
+        <f t="shared" si="10"/>
+        <v>-5.1537314408809491</v>
       </c>
       <c r="AT16">
         <f t="shared" si="21"/>
-        <v>-0.6349415011203503</v>
-      </c>
-      <c r="AU16">
+        <v>-0.63349142811859005</v>
+      </c>
+      <c r="AU16" s="1">
         <f t="shared" si="22"/>
-        <v>11.275695119805375</v>
+        <v>11.497073033603119</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="10"/>
-        <v>-85.090608076158134</v>
+        <f t="shared" si="11"/>
+        <v>-136.69753729197421</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="11"/>
-        <v>-340.14528910120708</v>
+        <f t="shared" si="12"/>
+        <v>-617.70886359266194</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="12"/>
-        <v>128117.38901675565</v>
+        <f t="shared" si="13"/>
+        <v>128065.78208753985</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="13"/>
-        <v>575204.47221923526</v>
+        <f t="shared" si="14"/>
+        <v>574926.90864474373</v>
       </c>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.25">
@@ -3503,12 +3503,12 @@
         <f t="shared" si="8"/>
         <v>1.1909840579468689</v>
       </c>
-      <c r="AI17">
-        <f t="shared" si="14"/>
-        <v>0.48213508069507638</v>
+      <c r="AI17" s="1">
+        <f t="shared" si="15"/>
+        <v>0.45285020609790444</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.8994370550261017</v>
       </c>
       <c r="AK17">
@@ -3520,55 +3520,55 @@
         <v>364252.63082599995</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="16"/>
-        <v>-0.78722852266525101</v>
+        <f t="shared" si="17"/>
+        <v>-0.76668055046195127</v>
       </c>
       <c r="AN17">
         <f t="shared" si="9"/>
-        <v>-0.25340686285032815</v>
+        <v>-0.21692868767426146</v>
       </c>
       <c r="AO17" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP17">
-        <f t="shared" si="17"/>
-        <v>1.5029102215241579</v>
+      <c r="AP17" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6207029186074151</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="18"/>
-        <v>4.0116635150383066</v>
+        <f t="shared" si="19"/>
+        <v>4.5250627449405583</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="19"/>
-        <v>5.7147026988091279E-2</v>
-      </c>
-      <c r="AS17">
         <f t="shared" si="20"/>
-        <v>-3.6717736354291803</v>
+        <v>5.8634759816341822E-2</v>
+      </c>
+      <c r="AS17" s="1">
+        <f t="shared" si="10"/>
+        <v>-5.159665613411188</v>
       </c>
       <c r="AT17">
         <f t="shared" si="21"/>
-        <v>-0.11852907883347651</v>
-      </c>
-      <c r="AU17">
+        <v>-0.12947937094162482</v>
+      </c>
+      <c r="AU17" s="1">
         <f t="shared" si="22"/>
-        <v>11.157166040971898</v>
+        <v>11.380653848629876</v>
       </c>
       <c r="AV17">
-        <f t="shared" si="10"/>
-        <v>-74.127592411744374</v>
+        <f t="shared" si="11"/>
+        <v>-65.113179433649719</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="11"/>
-        <v>-297.37495793582519</v>
+        <f t="shared" si="12"/>
+        <v>-294.6412224598381</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="12"/>
-        <v>120884.15523613225</v>
+        <f t="shared" si="13"/>
+        <v>120893.16964911035</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="13"/>
-        <v>546288.94187197613</v>
+        <f t="shared" si="14"/>
+        <v>546291.67560745205</v>
       </c>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.25">
@@ -3681,12 +3681,12 @@
         <f t="shared" si="8"/>
         <v>1.4376366571315558</v>
       </c>
-      <c r="AI18">
-        <f t="shared" si="14"/>
-        <v>0.87611282327385298</v>
+      <c r="AI18" s="1">
+        <f t="shared" si="15"/>
+        <v>0.48636443133478047</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.0601816983666748</v>
       </c>
       <c r="AK18">
@@ -3698,55 +3698,55 @@
         <v>321106.96157449996</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="16"/>
-        <v>-1.1187566125506243</v>
+        <f t="shared" si="17"/>
+        <v>-0.79023564756030695</v>
       </c>
       <c r="AN18">
         <f t="shared" si="9"/>
-        <v>-0.19636827733720949</v>
+        <v>-0.20984175316373219</v>
       </c>
       <c r="AO18" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP18">
-        <f t="shared" si="17"/>
-        <v>1.5078052642379274</v>
+      <c r="AP18" s="1">
+        <f t="shared" si="18"/>
+        <v>1.6300614229035937</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="18"/>
-        <v>4.0313843657970336</v>
+        <f t="shared" si="19"/>
+        <v>4.5696376103778009</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="19"/>
-        <v>0.7496838720915</v>
-      </c>
-      <c r="AS18">
         <f t="shared" si="20"/>
-        <v>-2.9220897633376803</v>
+        <v>0.42770377364902218</v>
+      </c>
+      <c r="AS18" s="1" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="AT18">
         <f t="shared" si="21"/>
-        <v>-0.85569329905489322</v>
-      </c>
-      <c r="AU18">
+        <v>-0.87938949909480524</v>
+      </c>
+      <c r="AU18" s="1">
         <f t="shared" si="22"/>
-        <v>10.301472741917005</v>
+        <v>10.60864093052813</v>
       </c>
       <c r="AV18">
-        <f t="shared" si="10"/>
-        <v>-83.120826447843399</v>
+        <f t="shared" si="11"/>
+        <v>-114.90704249350522</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="11"/>
-        <v>-335.09200021396447</v>
+        <f t="shared" si="12"/>
+        <v>-525.0835430756016</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="12"/>
-        <v>119399.69720706707</v>
+        <f t="shared" si="13"/>
+        <v>119367.91099102142</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="13"/>
-        <v>540332.15654375625</v>
+        <f t="shared" si="14"/>
+        <v>540142.16500089457</v>
       </c>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.25">

--- a/SMP_PE_ani_e&p.xlsx
+++ b/SMP_PE_ani_e&p.xlsx
@@ -9,17 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11952" tabRatio="196"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>avgT</t>
   </si>
@@ -184,15 +189,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ratio^4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dratio</t>
+    <t>ratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev/eq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev/eq_pred</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -239,9 +248,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -325,6 +335,455 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="AL1" t="str">
+            <v>p</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="AC2">
+            <v>1.9179218393023945E-3</v>
+          </cell>
+          <cell r="AL2">
+            <v>2628.7363384566665</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="AC3">
+            <v>0.51455954171665619</v>
+          </cell>
+          <cell r="AL3">
+            <v>28695.360281533332</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AC4">
+            <v>0.84345742975410176</v>
+          </cell>
+          <cell r="AL4">
+            <v>77940.330432899995</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AC5">
+            <v>1.0800553959536521</v>
+          </cell>
+          <cell r="AL5">
+            <v>140008.51703866667</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AC6">
+            <v>1.2745677676165852</v>
+          </cell>
+          <cell r="AL6">
+            <v>213616.09823266664</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AC7">
+            <v>1.4369641262391359</v>
+          </cell>
+          <cell r="AL7">
+            <v>294251.59353300004</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AC8">
+            <v>1.5732453077416311</v>
+          </cell>
+          <cell r="AL8">
+            <v>377657.08791199996</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AC9">
+            <v>1.6943575134402502</v>
+          </cell>
+          <cell r="AL9">
+            <v>465406.69704500004</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AC10">
+            <v>1.8017990946664553</v>
+          </cell>
+          <cell r="AL10">
+            <v>555121.68472466664</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AC11">
+            <v>1.8939649736938284</v>
+          </cell>
+          <cell r="AL11">
+            <v>641753.99755099998</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AC12">
+            <v>1.9750315989996661</v>
+          </cell>
+          <cell r="AL12">
+            <v>725876.80681533332</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AC13">
+            <v>2.045710835603491</v>
+          </cell>
+          <cell r="AL13">
+            <v>805640.87890000001</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AC14">
+            <v>2.101457291573138</v>
+          </cell>
+          <cell r="AL14">
+            <v>872983.02084666665</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AC15">
+            <v>2.1093485549506799</v>
+          </cell>
+          <cell r="AL15">
+            <v>882841.3188433334</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AC16">
+            <v>2.0490963882599411</v>
+          </cell>
+          <cell r="AL16">
+            <v>809617.2979316666</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AC17">
+            <v>2.0237588867885554</v>
+          </cell>
+          <cell r="AL17">
+            <v>780207.06103233341</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AC18">
+            <v>1.9889766262555886</v>
+          </cell>
+          <cell r="AL18">
+            <v>741129.91105766676</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="AV1" t="str">
+            <v>eq_pred</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="AT3">
+            <v>4.0986129748253566E-2</v>
+          </cell>
+          <cell r="AV3">
+            <v>0.54357683165796811</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AT4">
+            <v>-9.0962195149273492E-2</v>
+          </cell>
+          <cell r="AV4">
+            <v>1.2527111791161281</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AT5">
+            <v>-0.30063791090157771</v>
+          </cell>
+          <cell r="AV5">
+            <v>2.0871329538978531</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AT6">
+            <v>-0.56553324006309658</v>
+          </cell>
+          <cell r="AV6">
+            <v>3.0063815311831945</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AT7">
+            <v>-0.85166398322474335</v>
+          </cell>
+          <cell r="AV7">
+            <v>3.9234264603892344</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AT8">
+            <v>-1.1603409336828321</v>
+          </cell>
+          <cell r="AV8">
+            <v>4.8622436133342513</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AT9">
+            <v>-1.4790824591228682</v>
+          </cell>
+          <cell r="AV9">
+            <v>5.7954908188107046</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AT10">
+            <v>-1.8002705451505174</v>
+          </cell>
+          <cell r="AV10">
+            <v>6.7092379197771779</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AT11">
+            <v>-2.1079529542419553</v>
+          </cell>
+          <cell r="AV11">
+            <v>7.5653663812129777</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AT12">
+            <v>-2.3880056213378253</v>
+          </cell>
+          <cell r="AV12">
+            <v>8.3314634872135844</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AT13">
+            <v>-2.5155536550409514</v>
+          </cell>
+          <cell r="AV13">
+            <v>8.6768046510639714</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AT14">
+            <v>-2.5322933196544137</v>
+          </cell>
+          <cell r="AV14">
+            <v>8.7219751250687416</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AT15">
+            <v>-2.3841945141380516</v>
+          </cell>
+          <cell r="AV15">
+            <v>8.3211122100347197</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AT16">
+            <v>-2.1515573847430454</v>
+          </cell>
+          <cell r="AV16">
+            <v>7.685409866182721</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AT17">
+            <v>-2.1952380146765509</v>
+          </cell>
+          <cell r="AV17">
+            <v>7.8053702409389594</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AT18">
+            <v>-2.0495594831534385</v>
+          </cell>
+          <cell r="AV18">
+            <v>7.4041363881637494</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="AV1" t="str">
+            <v>eq_pred</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="AD3">
+            <v>-2.7743186307924717E-3</v>
+          </cell>
+          <cell r="AE3">
+            <v>0.79227428895571161</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="AD4">
+            <v>3.6056637227999344E-2</v>
+          </cell>
+          <cell r="AE4">
+            <v>1.6467493256652945</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="AD5">
+            <v>-5.3830521729392178E-2</v>
+          </cell>
+          <cell r="AE5">
+            <v>2.5786011719554747</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="AD6">
+            <v>-2.0860492076021364E-2</v>
+          </cell>
+          <cell r="AE6">
+            <v>3.4797714886515165</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="AD7">
+            <v>-0.17253362112402804</v>
+          </cell>
+          <cell r="AE7">
+            <v>4.46032940890486</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="AD8">
+            <v>-0.11966219637354514</v>
+          </cell>
+          <cell r="AE8">
+            <v>5.3807128307200633</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AD9">
+            <v>-0.30668116963163783</v>
+          </cell>
+          <cell r="AE9">
+            <v>6.3933386030602106</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AD10">
+            <v>-0.39891023430928918</v>
+          </cell>
+          <cell r="AE10">
+            <v>7.3773424148796956</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AD11">
+            <v>-0.51187788418595659</v>
+          </cell>
+          <cell r="AE11">
+            <v>8.3693944476711231</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AD12">
+            <v>-0.72445349709451712</v>
+          </cell>
+          <cell r="AE12">
+            <v>9.3997601185372393</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AD13">
+            <v>-0.8823372851110256</v>
+          </cell>
+          <cell r="AE13">
+            <v>10.42127381778735</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="AD14">
+            <v>-1.0283927463105793</v>
+          </cell>
+          <cell r="AE14">
+            <v>11.4366759110223</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="AD15">
+            <v>-1.1633764262104642</v>
+          </cell>
+          <cell r="AE15">
+            <v>12.453888443639299</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AD16">
+            <v>-1.3692547746034252</v>
+          </cell>
+          <cell r="AE16">
+            <v>13.494096944178469</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AD17">
+            <v>-1.5788078329901047</v>
+          </cell>
+          <cell r="AE17">
+            <v>14.54301115556521</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AD18">
+            <v>-3.3233542994274909</v>
+          </cell>
+          <cell r="AE18">
+            <v>16.127682295602149</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -590,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1:AO1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AP3" sqref="AP3:AP18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -614,14 +1073,16 @@
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
-    <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="12.77734375" customWidth="1"/>
-    <col min="44" max="44" width="12.44140625" customWidth="1"/>
-    <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="52" max="1032" width="11.5546875"/>
+    <col min="36" max="36" width="10.33203125" customWidth="1"/>
+    <col min="37" max="37" width="10.21875" style="2" customWidth="1"/>
+    <col min="42" max="42" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.77734375" customWidth="1"/>
+    <col min="45" max="45" width="12.44140625" customWidth="1"/>
+    <col min="46" max="46" width="11.21875" customWidth="1"/>
+    <col min="53" max="1033" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -725,58 +1186,61 @@
         <v>47</v>
       </c>
       <c r="AI1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>36</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>37</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>39</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>41</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.160598911058</v>
       </c>
@@ -863,7 +1327,7 @@
         <v>-2.36137909226386E-7</v>
       </c>
       <c r="AC2">
-        <f>0.0762*AK2^0.2606-0.5912</f>
+        <f>0.0762*AL2^0.2606-0.5912</f>
         <v>-4.8505320644575134E-3</v>
       </c>
       <c r="AD2">
@@ -878,31 +1342,27 @@
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.36137909226386E-7</v>
       </c>
-      <c r="AJ2">
-        <f>(1.35*(AK2/3255000)^-0.0723)^4</f>
-        <v>26.381866960846768</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
+      <c r="AL2">
+        <f>(X2+Y2+Z2)/3</f>
         <v>2515.4747919599999</v>
       </c>
-      <c r="AL2">
-        <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
+      <c r="AM2">
+        <f>Z2-(Y2+X2)/2</f>
         <v>3475.8422263949997</v>
       </c>
-      <c r="AO2">
-        <f t="shared" ref="AO2" si="4">(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
+      <c r="AP2">
+        <f t="shared" ref="AP2:AP18" si="2">(3*(1-2*0.33))/(0.0762*0.2606*(AL2)^(0.2606-1))</f>
         <v>16791.488429039899</v>
       </c>
-      <c r="AS2" s="1">
-        <f>(1+2*AM3)*AK3*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>2.5188497992038585E-4</v>
-      </c>
-      <c r="AU2">
+      <c r="AT2" s="1" t="e">
+        <f>(1+2*AN2)*AL2*(1-AQ2/3)/(2*AO2*AP2*AN2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.508269369114</v>
       </c>
@@ -989,15 +1449,15 @@
         <v>0.14424923787768051</v>
       </c>
       <c r="AC3" s="1">
-        <f t="shared" ref="AC3:AC18" si="5">0.0762*AK3^0.2606-0.5912</f>
+        <f t="shared" ref="AC3:AC18" si="3">0.0762*AL3^0.2606-0.5912</f>
         <v>0.18469952273342194</v>
       </c>
       <c r="AD3" s="1">
-        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="4">AB3-AC3</f>
         <v>-4.0450284855741425E-2</v>
       </c>
       <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
+        <f t="shared" ref="AE3:AE18" si="5">P3-AB3/3</f>
         <v>0.60385484924843991</v>
       </c>
       <c r="AF3" s="1">
@@ -1005,11 +1465,11 @@
         <v>-0.18171972639281952</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="6">AD3-AD2</f>
         <v>-4.5300580782289712E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.6038547705358035</v>
       </c>
       <c r="AI3" s="1">
@@ -1017,69 +1477,74 @@
         <v>6.698676827069619E-2</v>
       </c>
       <c r="AJ3" s="1">
-        <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
+        <f>-0.0427*AK3-0.1047*53^0.2917+0.9625</f>
+        <v>-0.1963953587946029</v>
+      </c>
+      <c r="AK3" s="2">
+        <f>AQ3^4</f>
         <v>19.333300496197833</v>
       </c>
-      <c r="AK3" s="1">
-        <f t="shared" si="2"/>
+      <c r="AL3" s="1">
+        <f>(X3+Y3+Z3)/3</f>
         <v>7369.2502595533333</v>
       </c>
-      <c r="AL3" s="1">
-        <f t="shared" si="3"/>
+      <c r="AM3" s="1">
+        <f>Z3-(Y3+X3)/2</f>
         <v>10041.22055317</v>
       </c>
-      <c r="AM3" s="1">
-        <v>-0.49972129302590063</v>
-      </c>
-      <c r="AN3" s="1">
-        <f t="shared" ref="AN3:AN18" si="9">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.13213408248461755</v>
+      <c r="AN3">
+        <f>(-2*AJ3-3)/(-2*AJ3+6)</f>
+        <v>-0.40783585723169158</v>
       </c>
       <c r="AO3" s="1">
+        <f t="shared" ref="AO3:AO18" si="7">1/(2+AN3*AR3-2*0.33*(1+AN3+AR3))</f>
+        <v>-0.14499496817056987</v>
+      </c>
+      <c r="AP3" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP3" s="1">
-        <f>AJ3^0.25</f>
+      <c r="AQ3" s="1">
+        <f>1.35*(AL3/3255000)^-0.0723</f>
         <v>2.096894112417417</v>
       </c>
-      <c r="AQ3" s="1">
-        <f>(2*AP3+3)/(3-AP3)</f>
+      <c r="AR3" s="1">
+        <f>(2*AQ3+3)/(3-AQ3)</f>
         <v>7.9656088214539622</v>
       </c>
-      <c r="AR3" s="1">
-        <f>(1+2*AM3)*AK3*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>2.5188497992038585E-4</v>
-      </c>
       <c r="AS3" s="1">
-        <f t="shared" ref="AS3:AS18" si="10">(1+2*AM4)*AK4*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>-0.14344569906364341</v>
+        <f>(1+2*AN3)*AL3*(1-AQ3/3)/(2*AO3*AP3*AN3)</f>
+        <v>9.3008104509897702E-2</v>
       </c>
       <c r="AT3" s="1">
-        <f>(1-AM3)*(AK3)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.45179741076412522</v>
+        <f>(1+2*AN3)*AL3*(1-AQ3/3)/(2*AO3*AP3*AN3)</f>
+        <v>9.3008104509897702E-2</v>
       </c>
       <c r="AU3" s="1">
-        <f>(1-AM3)*(AK3)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.45179741076412522</v>
+        <f>(1-AN3)*(AL3)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>0.47357587817117852</v>
       </c>
       <c r="AV3" s="1">
-        <f t="shared" ref="AV3:AV18" si="11">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-16.693039972242712</v>
+        <f>(1-AN3)*(AL3)*(1-AQ3/3)/(3*AO3*AP3*AN3)</f>
+        <v>0.47357587817117852</v>
       </c>
       <c r="AW3" s="1">
-        <f t="shared" ref="AW3:AW18" si="12">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-132.97022645978015</v>
+        <f>AO3*AP3*(AN3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-21.233740993500586</v>
       </c>
       <c r="AX3" s="1">
-        <f t="shared" ref="AX3:AX18" si="13">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>598.4689403995327</v>
+        <f>AO3*AP3*(AN3*AR3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AR3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
+        <v>-169.1396745702969</v>
       </c>
       <c r="AY3" s="1">
-        <f t="shared" ref="AY3:AY18" si="14">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6183.1301886766687</v>
+        <f>AW3+(AL2-1.35*(AL2/3255000)^-0.0723*AL2/3)</f>
+        <v>593.92823937827484</v>
+      </c>
+      <c r="AZ3" s="1">
+        <f>AX3+(AL2+2*1.35*(AL2/3255000)^-0.0723*AL2/3)</f>
+        <v>6146.9607405661518</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.6453933726400001</v>
       </c>
@@ -1166,15 +1631,15 @@
         <v>0.31701430431554378</v>
       </c>
       <c r="AC4">
+        <f t="shared" si="3"/>
+        <v>0.47917183489631787</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="4"/>
+        <v>-0.16215753058077409</v>
+      </c>
+      <c r="AE4">
         <f t="shared" si="5"/>
-        <v>0.47917183489631787</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="6"/>
-        <v>-0.16215753058077409</v>
-      </c>
-      <c r="AE4">
-        <f t="shared" si="7"/>
         <v>1.5489256315891522</v>
       </c>
       <c r="AF4">
@@ -1182,82 +1647,86 @@
         <v>-0.51028422886495628</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-0.12170724572503266</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.94507078234071229</v>
       </c>
       <c r="AI4" s="1">
-        <f t="shared" ref="AI4:AI18" si="15">-AD4/AE4</f>
+        <f t="shared" ref="AI4:AI18" si="8">-AD4/AE4</f>
         <v>0.10469032681343469</v>
       </c>
-      <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ18" si="16">(1.35*(AK4/3255000)^-0.0723)^4</f>
+      <c r="AJ4" s="1">
+        <f t="shared" ref="AJ4:AJ18" si="9">-0.0427*AK4-0.1047*53^0.2917+0.9625</f>
+        <v>5.1479805097287779E-2</v>
+      </c>
+      <c r="AK4" s="2">
+        <f t="shared" ref="AK4:AK18" si="10">AQ4^4</f>
         <v>13.52826152917463</v>
       </c>
-      <c r="AK4">
-        <f t="shared" si="2"/>
+      <c r="AL4">
+        <f>(X4+Y4+Z4)/3</f>
         <v>25328.292626999999</v>
       </c>
-      <c r="AL4">
-        <f t="shared" si="3"/>
+      <c r="AM4">
+        <f>Z4-(Y4+X4)/2</f>
         <v>37030.15371405</v>
       </c>
-      <c r="AM4">
-        <f t="shared" ref="AM4:AM18" si="17">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.55423789091524689</v>
-      </c>
       <c r="AN4">
-        <f t="shared" si="9"/>
-        <v>-0.16766983133557156</v>
-      </c>
-      <c r="AO4" s="1">
+        <f t="shared" ref="AN4:AN18" si="11">(-2*AJ4-3)/(-2*AJ4+6)</f>
+        <v>-0.52618930939643083</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="7"/>
+        <v>-0.17225218740536147</v>
+      </c>
+      <c r="AP4" s="1">
         <v>37174.366906725903</v>
       </c>
-      <c r="AP4" s="1">
-        <f t="shared" ref="AP4:AP18" si="18">AJ4^0.25</f>
+      <c r="AQ4" s="1">
+        <f t="shared" ref="AQ4:AQ18" si="12">1.35*(AL4/3255000)^-0.0723</f>
         <v>1.9178317211030547</v>
       </c>
-      <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ18" si="19">(2*AP4+3)/(3-AP4)</f>
+      <c r="AR4">
+        <f t="shared" ref="AR4:AR18" si="13">(2*AQ4+3)/(3-AQ4)</f>
         <v>6.316636308332475</v>
       </c>
-      <c r="AR4">
-        <f t="shared" ref="AR4:AR18" si="20">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>-0.10171026625639185</v>
-      </c>
-      <c r="AS4" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.44709316450860193</v>
-      </c>
-      <c r="AT4">
-        <f t="shared" ref="AT4:AT18" si="21">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.97153451853910511</v>
-      </c>
-      <c r="AU4" s="1">
-        <f t="shared" ref="AU4:AU18" si="22">(1-AM4)*(AK4)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>1.3701905747154026</v>
-      </c>
-      <c r="AV4">
-        <f t="shared" si="11"/>
-        <v>-32.717110573685794</v>
+      <c r="AS4">
+        <f t="shared" ref="AS4:AS18" si="14">(1+2*AN4)*(AL4-AL3)*(1-AQ4/3)/(2*AO4*AP4*AN4)</f>
+        <v>-5.0353587659025888E-2</v>
+      </c>
+      <c r="AT4" s="1">
+        <f t="shared" ref="AT4:AT18" si="15">(1+2*AN4)*AL4*(1-AQ4/3)/(2*AO4*AP4*AN4)</f>
+        <v>-7.1015501659425606E-2</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" ref="AU4:AU18" si="16">(1-AN4)*(AL4-AL3)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>0.97812312155934711</v>
+      </c>
+      <c r="AV4" s="1">
+        <f t="shared" ref="AV4:AV18" si="17">(1-AN4)*(AL4)*(1-AQ4/3)/(3*AO4*AP4*AN4)</f>
+        <v>1.3794827219182129</v>
       </c>
       <c r="AW4">
-        <f t="shared" si="12"/>
-        <v>-206.6620885534721</v>
+        <f>AO4*AP4*(AN4*0.01*((AD4-AD3)/3+(AE4-AE3))-2*0.01*((AD4-AD3)/3-(AE4-AE3)/2))</f>
+        <v>-35.235790713004882</v>
       </c>
       <c r="AX4">
-        <f t="shared" si="13"/>
-        <v>2185.687321583679</v>
+        <f>AO4*AP4*(AN4*AR4*0.01*((AD4-AD3)/3+(AE4-AE3))-2*AR4*0.01*((AD4-AD3)/3-(AE4-AE3)/2))</f>
+        <v>-222.57167497057094</v>
       </c>
       <c r="AY4">
-        <f t="shared" si="14"/>
-        <v>17464.279825791797</v>
+        <f>AW4+(AL3-1.35*(AL3/3255000)^-0.0723*AL3/3)</f>
+        <v>2183.1686414443598</v>
+      </c>
+      <c r="AZ4">
+        <f>AX4+(AL3+2*1.35*(AL3/3255000)^-0.0723*AL3/3)</f>
+        <v>17448.370239374697</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.1487884125400001</v>
       </c>
@@ -1344,15 +1813,15 @@
         <v>0.22118664939348998</v>
       </c>
       <c r="AC5">
+        <f t="shared" si="3"/>
+        <v>0.68271795400820712</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="4"/>
+        <v>-0.46153130461471714</v>
+      </c>
+      <c r="AE5">
         <f t="shared" si="5"/>
-        <v>0.68271795400820712</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="6"/>
-        <v>-0.46153130461471714</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="7"/>
         <v>2.5823189195798366</v>
       </c>
       <c r="AF5">
@@ -1360,82 +1829,86 @@
         <v>-1.10683725196201</v>
       </c>
       <c r="AG5">
+        <f t="shared" si="6"/>
+        <v>-0.29937377403394305</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="6"/>
+        <v>1.0333932879906844</v>
+      </c>
+      <c r="AI5" s="1">
         <f t="shared" si="8"/>
-        <v>-0.29937377403394305</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="8"/>
-        <v>1.0333932879906844</v>
-      </c>
-      <c r="AI5" s="1">
+        <v>0.17872746124239833</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" si="9"/>
+        <v>0.15296278796009599</v>
+      </c>
+      <c r="AK5" s="2">
+        <f t="shared" si="10"/>
+        <v>11.151610876649848</v>
+      </c>
+      <c r="AL5">
+        <f>(X5+Y5+Z5)/3</f>
+        <v>49400.543063766672</v>
+      </c>
+      <c r="AM5">
+        <f>Z5-(Y5+X5)/2</f>
+        <v>74684.303747600003</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="11"/>
+        <v>-0.58059051036278764</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="7"/>
+        <v>-0.18805829086347117</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ5" s="1">
+        <f t="shared" si="12"/>
+        <v>1.8274032867570487</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="13"/>
+        <v>5.6752730912143381</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="14"/>
+        <v>-0.18681941934695362</v>
+      </c>
+      <c r="AT5" s="1">
         <f t="shared" si="15"/>
-        <v>0.17872746124239833</v>
-      </c>
-      <c r="AJ5">
+        <v>-0.38338670473871495</v>
+      </c>
+      <c r="AU5">
         <f t="shared" si="16"/>
-        <v>11.151610876649848</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" si="2"/>
-        <v>49400.543063766672</v>
-      </c>
-      <c r="AL5">
-        <f t="shared" si="3"/>
-        <v>74684.303747600003</v>
-      </c>
-      <c r="AM5">
+        <v>1.2213390056390054</v>
+      </c>
+      <c r="AV5" s="1">
         <f t="shared" si="17"/>
-        <v>-0.59502491807532221</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="9"/>
-        <v>-0.18553245038084784</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP5" s="1">
-        <f t="shared" si="18"/>
-        <v>1.8274032867570487</v>
-      </c>
-      <c r="AQ5">
-        <f t="shared" si="19"/>
-        <v>5.6752730912143381</v>
-      </c>
-      <c r="AR5">
-        <f t="shared" si="20"/>
-        <v>-0.21786275933698146</v>
-      </c>
-      <c r="AS5" s="1">
-        <f t="shared" si="10"/>
-        <v>-0.73677286041067191</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" si="21"/>
-        <v>1.2189663402732844</v>
-      </c>
-      <c r="AU5" s="1">
-        <f t="shared" si="22"/>
-        <v>2.5015359217923097</v>
-      </c>
-      <c r="AV5">
-        <f t="shared" si="11"/>
-        <v>-46.724718272836888</v>
+        <v>2.5064050534874571</v>
       </c>
       <c r="AW5">
-        <f t="shared" si="12"/>
-        <v>-265.17553630840212</v>
+        <f>AO5*AP5*(AN5*0.01*((AD5-AD4)/3+(AE5-AE4))-2*0.01*((AD5-AD4)/3-(AE5-AE4)/2))</f>
+        <v>-48.302928620553381</v>
       </c>
       <c r="AX5">
-        <f t="shared" si="13"/>
-        <v>9089.7668949134222</v>
+        <f>AO5*AP5*(AN5*AR5*0.01*((AD5-AD4)/3+(AE5-AE4))-2*AR5*0.01*((AD5-AD4)/3-(AE5-AE4)/2))</f>
+        <v>-274.13231102707351</v>
       </c>
       <c r="AY5">
-        <f t="shared" si="14"/>
-        <v>57446.719118319081</v>
+        <f>AW5+(AL4-1.35*(AL4/3255000)^-0.0723*AL4/3)</f>
+        <v>9088.1886845657064</v>
+      </c>
+      <c r="AZ5">
+        <f>AX5+(AL4+2*1.35*(AL4/3255000)^-0.0723*AL4/3)</f>
+        <v>57437.762343600407</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.8111521126300003</v>
       </c>
@@ -1522,15 +1995,15 @@
         <v>0.1159836065091735</v>
       </c>
       <c r="AC6">
+        <f t="shared" si="3"/>
+        <v>0.83484291662911847</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="4"/>
+        <v>-0.71885931011994497</v>
+      </c>
+      <c r="AE6">
         <f t="shared" si="5"/>
-        <v>0.83484291662911847</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="6"/>
-        <v>-0.71885931011994497</v>
-      </c>
-      <c r="AE6">
-        <f t="shared" si="7"/>
         <v>3.616329679161276</v>
       </c>
       <c r="AF6">
@@ -1538,82 +2011,86 @@
         <v>-1.7115118341563267</v>
       </c>
       <c r="AG6">
+        <f t="shared" si="6"/>
+        <v>-0.25732800550522783</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="6"/>
+        <v>1.0340107595814394</v>
+      </c>
+      <c r="AI6" s="1">
         <f t="shared" si="8"/>
-        <v>-0.25732800550522783</v>
-      </c>
-      <c r="AH6">
-        <f t="shared" si="8"/>
-        <v>1.0340107595814394</v>
-      </c>
-      <c r="AI6" s="1">
+        <v>0.19878146460548027</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="9"/>
+        <v>0.20899299702058438</v>
+      </c>
+      <c r="AK6" s="2">
+        <f t="shared" si="10"/>
+        <v>9.8394279946711976</v>
+      </c>
+      <c r="AL6">
+        <f>(X6+Y6+Z6)/3</f>
+        <v>76159.720779999989</v>
+      </c>
+      <c r="AM6">
+        <f>Z6-(Y6+X6)/2</f>
+        <v>116883.154572</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="11"/>
+        <v>-0.61232128590011592</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="7"/>
+        <v>-0.19883849199480624</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ6" s="1">
+        <f t="shared" si="12"/>
+        <v>1.7710974712384502</v>
+      </c>
+      <c r="AR6">
+        <f t="shared" si="13"/>
+        <v>5.3236076819452256</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="14"/>
+        <v>-0.27202424592918883</v>
+      </c>
+      <c r="AT6" s="1">
         <f t="shared" si="15"/>
-        <v>0.19878146460548027</v>
-      </c>
-      <c r="AJ6">
+        <v>-0.77421252756914993</v>
+      </c>
+      <c r="AU6">
         <f t="shared" si="16"/>
-        <v>9.8394279946711976</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="2"/>
-        <v>76159.720779999989</v>
-      </c>
-      <c r="AL6">
-        <f t="shared" si="3"/>
-        <v>116883.154572</v>
-      </c>
-      <c r="AM6">
+        <v>1.3015950285759874</v>
+      </c>
+      <c r="AV6" s="1">
         <f t="shared" si="17"/>
-        <v>-0.60644374694108827</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" si="9"/>
-        <v>-0.19992815433883163</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP6" s="1">
-        <f t="shared" si="18"/>
-        <v>1.7710974712384502</v>
-      </c>
-      <c r="AQ6">
-        <f t="shared" si="19"/>
-        <v>5.3236076819452256</v>
-      </c>
-      <c r="AR6">
-        <f t="shared" si="20"/>
-        <v>-0.25886959282818339</v>
-      </c>
-      <c r="AS6" s="1">
-        <f t="shared" si="10"/>
-        <v>-1.1738933064716637</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" si="21"/>
-        <v>1.3022823498255214</v>
-      </c>
-      <c r="AU6" s="1">
-        <f t="shared" si="22"/>
-        <v>3.706446483191673</v>
-      </c>
-      <c r="AV6">
-        <f t="shared" si="11"/>
-        <v>-46.86090850377564</v>
+        <v>3.7044902872649614</v>
       </c>
       <c r="AW6">
-        <f t="shared" si="12"/>
-        <v>-249.46909249363236</v>
+        <f>AO6*AP6*(AN6*0.01*((AD6-AD5)/3+(AE6-AE5))-2*0.01*((AD6-AD5)/3-(AE6-AE5)/2))</f>
+        <v>-46.193543558420032</v>
       </c>
       <c r="AX6">
-        <f t="shared" si="13"/>
-        <v>19262.110567826119</v>
+        <f>AO6*AP6*(AN6*AR6*0.01*((AD6-AD5)/3+(AE6-AE5))-2*AR6*0.01*((AD6-AD5)/3-(AE6-AE5)/2))</f>
+        <v>-245.91630334387625</v>
       </c>
       <c r="AY6">
-        <f t="shared" si="14"/>
-        <v>109334.21714614659</v>
+        <f>AW6+(AL5-1.35*(AL5/3255000)^-0.0723*AL5/3)</f>
+        <v>19262.777932771474</v>
+      </c>
+      <c r="AZ6">
+        <f>AX6+(AL5+2*1.35*(AL5/3255000)^-0.0723*AL5/3)</f>
+        <v>109337.76993529634</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5685508673699999</v>
       </c>
@@ -1700,15 +2177,15 @@
         <v>-0.16414932304338326</v>
       </c>
       <c r="AC7">
+        <f t="shared" si="3"/>
+        <v>0.95685247262380524</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="4"/>
+        <v>-1.1210017956671885</v>
+      </c>
+      <c r="AE7">
         <f t="shared" si="5"/>
-        <v>0.95685247262380524</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="6"/>
-        <v>-1.1210017956671885</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="7"/>
         <v>4.708119553395461</v>
       </c>
       <c r="AF7">
@@ -1716,82 +2193,86 @@
         <v>-2.490850879233883</v>
       </c>
       <c r="AG7">
+        <f t="shared" si="6"/>
+        <v>-0.40214248554724352</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="6"/>
+        <v>1.0917898742341849</v>
+      </c>
+      <c r="AI7" s="1">
         <f t="shared" si="8"/>
-        <v>-0.40214248554724352</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="8"/>
-        <v>1.0917898742341849</v>
-      </c>
-      <c r="AI7" s="1">
+        <v>0.23809968777422619</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="9"/>
+        <v>0.24557787427962874</v>
+      </c>
+      <c r="AK7" s="2">
+        <f t="shared" si="10"/>
+        <v>8.9826393000799953</v>
+      </c>
+      <c r="AL7">
+        <f>(X7+Y7+Z7)/3</f>
+        <v>104360.67064436666</v>
+      </c>
+      <c r="AM7">
+        <f>Z7-(Y7+X7)/2</f>
+        <v>161586.88985345</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="11"/>
+        <v>-0.63373651336143799</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="7"/>
+        <v>-0.20698570618504308</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ7" s="1">
+        <f t="shared" si="12"/>
+        <v>1.7312149356228954</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="13"/>
+        <v>5.0934000191895752</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="14"/>
+        <v>-0.3271055172111782</v>
+      </c>
+      <c r="AT7" s="1">
         <f t="shared" si="15"/>
-        <v>0.23809968777422619</v>
-      </c>
-      <c r="AJ7">
+        <v>-1.2104894094636414</v>
+      </c>
+      <c r="AU7">
         <f t="shared" si="16"/>
-        <v>8.9826393000799953</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="2"/>
-        <v>104360.67064436666</v>
-      </c>
-      <c r="AL7">
-        <f t="shared" si="3"/>
-        <v>161586.88985345</v>
-      </c>
-      <c r="AM7">
+        <v>1.3319828513488869</v>
+      </c>
+      <c r="AV7" s="1">
         <f t="shared" si="17"/>
-        <v>-0.62931296979850715</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="9"/>
-        <v>-0.20782934090147454</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP7" s="1">
-        <f t="shared" si="18"/>
-        <v>1.7312149356228954</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" si="19"/>
-        <v>5.0934000191895752</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" si="20"/>
-        <v>-0.31721630454767485</v>
-      </c>
-      <c r="AS7" s="1">
-        <f t="shared" si="10"/>
-        <v>-1.6525850645610833</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="21"/>
-        <v>1.3322835805163671</v>
-      </c>
-      <c r="AU7" s="1">
-        <f t="shared" si="22"/>
-        <v>4.9302597472735377</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" si="11"/>
-        <v>-58.498006412002518</v>
+        <v>4.9291468664042242</v>
       </c>
       <c r="AW7">
-        <f t="shared" si="12"/>
-        <v>-297.95374698144565</v>
+        <f>AO7*AP7*(AN7*0.01*((AD7-AD6)/3+(AE7-AE6))-2*0.01*((AD7-AD6)/3-(AE7-AE6)/2))</f>
+        <v>-57.934558401192319</v>
       </c>
       <c r="AX7">
-        <f t="shared" si="13"/>
-        <v>31139.126479026505</v>
+        <f>AO7*AP7*(AN7*AR7*0.01*((AD7-AD6)/3+(AE7-AE6))-2*AR7*0.01*((AD7-AD6)/3-(AE7-AE6)/2))</f>
+        <v>-295.08388087237262</v>
       </c>
       <c r="AY7">
-        <f t="shared" si="14"/>
-        <v>165785.9596221415</v>
+        <f>AW7+(AL6-1.35*(AL6/3255000)^-0.0723*AL6/3)</f>
+        <v>31139.689927037314</v>
+      </c>
+      <c r="AZ7">
+        <f>AX7+(AL6+2*1.35*(AL6/3255000)^-0.0723*AL6/3)</f>
+        <v>165788.82948825057</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.3302405671600006</v>
       </c>
@@ -1878,15 +2359,15 @@
         <v>-0.49149247383222239</v>
       </c>
       <c r="AC8">
+        <f t="shared" si="3"/>
+        <v>1.0616607449228568</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="4"/>
+        <v>-1.5531532187550792</v>
+      </c>
+      <c r="AE8">
         <f t="shared" si="5"/>
-        <v>1.0616607449228568</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="6"/>
-        <v>-1.5531532187550792</v>
-      </c>
-      <c r="AE8">
-        <f t="shared" si="7"/>
         <v>5.8224228299217398</v>
       </c>
       <c r="AF8">
@@ -1894,82 +2375,86 @@
         <v>-3.320788476487722</v>
       </c>
       <c r="AG8">
+        <f t="shared" si="6"/>
+        <v>-0.43215142308789067</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="6"/>
+        <v>1.1143032765262788</v>
+      </c>
+      <c r="AI8" s="1">
         <f t="shared" si="8"/>
-        <v>-0.43215142308789067</v>
-      </c>
-      <c r="AH8">
-        <f t="shared" si="8"/>
-        <v>1.1143032765262788</v>
-      </c>
-      <c r="AI8" s="1">
+        <v>0.26675376627979375</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="9"/>
+        <v>0.27247289043055145</v>
+      </c>
+      <c r="AK8" s="2">
+        <f t="shared" si="10"/>
+        <v>8.3527794370607289</v>
+      </c>
+      <c r="AL8">
+        <f>(X8+Y8+Z8)/3</f>
+        <v>134186.94364290001</v>
+      </c>
+      <c r="AM8">
+        <f>Z8-(Y8+X8)/2</f>
+        <v>209411.00116514997</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="11"/>
+        <v>-0.64984611306405815</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="7"/>
+        <v>-0.21368361930309693</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ8" s="1">
+        <f t="shared" si="12"/>
+        <v>1.7000345723760852</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="13"/>
+        <v>4.9232610412188098</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="14"/>
+        <v>-0.37517136267571927</v>
+      </c>
+      <c r="AT8" s="1">
         <f t="shared" si="15"/>
-        <v>0.26675376627979375</v>
-      </c>
-      <c r="AJ8">
+        <v>-1.6878776138833129</v>
+      </c>
+      <c r="AU8">
         <f t="shared" si="16"/>
-        <v>8.3527794370607289</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="2"/>
-        <v>134186.94364290001</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" si="3"/>
-        <v>209411.00116514997</v>
-      </c>
-      <c r="AM8">
+        <v>1.3769126245289482</v>
+      </c>
+      <c r="AV8" s="1">
         <f t="shared" si="17"/>
-        <v>-0.64639392692954534</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="9"/>
-        <v>-0.21435775381005986</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP8" s="1">
-        <f t="shared" si="18"/>
-        <v>1.7000345723760852</v>
-      </c>
-      <c r="AQ8">
-        <f t="shared" si="19"/>
-        <v>4.9232610412188098</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" si="20"/>
-        <v>-0.36732674544007876</v>
-      </c>
-      <c r="AS8" s="1">
-        <f t="shared" si="10"/>
-        <v>-2.1503569073943143</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="21"/>
-        <v>1.3770255264354745</v>
-      </c>
-      <c r="AU8" s="1">
-        <f t="shared" si="22"/>
-        <v>6.1951705035261329</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="11"/>
-        <v>-61.775778454985193</v>
+        <v>6.1946625633698504</v>
       </c>
       <c r="AW8">
-        <f t="shared" si="12"/>
-        <v>-304.13828335839293</v>
+        <f>AO8*AP8*(AN8*0.01*((AD8-AD7)/3+(AE8-AE7))-2*0.01*((AD8-AD7)/3-(AE8-AE7)/2))</f>
+        <v>-61.315430794662092</v>
       </c>
       <c r="AX8">
-        <f t="shared" si="13"/>
-        <v>44075.31096219521</v>
+        <f>AO8*AP8*(AN8*AR8*0.01*((AD8-AD7)/3+(AE8-AE7))-2*AR8*0.01*((AD8-AD7)/3-(AE8-AE7)/2))</f>
+        <v>-301.87187165690796</v>
       </c>
       <c r="AY8">
-        <f t="shared" si="14"/>
-        <v>224503.7001684412</v>
+        <f>AW8+(AL7-1.35*(AL7/3255000)^-0.0723*AL7/3)</f>
+        <v>44075.771309855532</v>
+      </c>
+      <c r="AZ8">
+        <f>AX8+(AL7+2*1.35*(AL7/3255000)^-0.0723*AL7/3)</f>
+        <v>224505.96658014267</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.1081107487</v>
       </c>
@@ -2056,15 +2541,15 @@
         <v>-0.88855303993187196</v>
       </c>
       <c r="AC9">
+        <f t="shared" si="3"/>
+        <v>1.1448622709563296</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="4"/>
+        <v>-2.0334153108882016</v>
+      </c>
+      <c r="AE9">
         <f t="shared" si="5"/>
-        <v>1.1448622709563296</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="6"/>
-        <v>-2.0334153108882016</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="7"/>
         <v>6.9544037559349565</v>
       </c>
       <c r="AF9">
@@ -2072,82 +2557,86 @@
         <v>-4.2176627445773711</v>
       </c>
       <c r="AG9">
+        <f t="shared" si="6"/>
+        <v>-0.48026209213312243</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="6"/>
+        <v>1.1319809260132168</v>
+      </c>
+      <c r="AI9" s="1">
         <f t="shared" si="8"/>
-        <v>-0.48026209213312243</v>
-      </c>
-      <c r="AH9">
-        <f t="shared" si="8"/>
-        <v>1.1319809260132168</v>
-      </c>
-      <c r="AI9" s="1">
+        <v>0.29239247277710401</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" si="9"/>
+        <v>0.29139146749115941</v>
+      </c>
+      <c r="AK9" s="2">
+        <f t="shared" si="10"/>
+        <v>7.9097214262736575</v>
+      </c>
+      <c r="AL9">
+        <f>(X9+Y9+Z9)/3</f>
+        <v>162015.33762943334</v>
+      </c>
+      <c r="AM9">
+        <f>Z9-(Y9+X9)/2</f>
+        <v>253290.84840685001</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="11"/>
+        <v>-0.66136964644052443</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="7"/>
+        <v>-0.21882528986923702</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ9" s="1">
+        <f t="shared" si="12"/>
+        <v>1.6770279356474203</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="13"/>
+        <v>4.8028647335076666</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="14"/>
+        <v>-0.36809003245933619</v>
+      </c>
+      <c r="AT9" s="1">
         <f t="shared" si="15"/>
-        <v>0.29239247277710401</v>
-      </c>
-      <c r="AJ9">
+        <v>-2.1429993737974056</v>
+      </c>
+      <c r="AU9">
         <f t="shared" si="16"/>
-        <v>7.9097214262736575</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="2"/>
-        <v>162015.33762943334</v>
-      </c>
-      <c r="AL9">
-        <f t="shared" si="3"/>
-        <v>253290.84840685001</v>
-      </c>
-      <c r="AM9">
+        <v>1.2632148622213983</v>
+      </c>
+      <c r="AV9" s="1">
         <f t="shared" si="17"/>
-        <v>-0.66198385650652336</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="9"/>
-        <v>-0.21870351127642934</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP9" s="1">
-        <f t="shared" si="18"/>
-        <v>1.6770279356474203</v>
-      </c>
-      <c r="AQ9">
-        <f t="shared" si="19"/>
-        <v>4.8028647335076666</v>
-      </c>
-      <c r="AR9">
-        <f t="shared" si="20"/>
-        <v>-0.36935379147561059</v>
-      </c>
-      <c r="AS9" s="1">
-        <f t="shared" si="10"/>
-        <v>-2.6320773027980722</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="21"/>
-        <v>1.2632123801530808</v>
-      </c>
-      <c r="AU9" s="1">
-        <f t="shared" si="22"/>
-        <v>7.3543511122927194</v>
-      </c>
-      <c r="AV9">
-        <f t="shared" si="11"/>
-        <v>-65.754966636107071</v>
+        <v>7.354365562754241</v>
       </c>
       <c r="AW9">
-        <f t="shared" si="12"/>
-        <v>-315.81221030953196</v>
+        <f>AO9*AP9*(AN9*0.01*((AD9-AD8)/3+(AE9-AE8))-2*0.01*((AD9-AD8)/3-(AE9-AE8)/2))</f>
+        <v>-65.840140129794449</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="13"/>
-        <v>58080.374224793435</v>
+        <f>AO9*AP9*(AN9*AR9*0.01*((AD9-AD8)/3+(AE9-AE8))-2*AR9*0.01*((AD9-AD8)/3-(AE9-AE8)/2))</f>
+        <v>-316.2212870785927</v>
       </c>
       <c r="AY9">
-        <f t="shared" si="14"/>
-        <v>285952.76033553138</v>
+        <f>AW9+(AL8-1.35*(AL8/3255000)^-0.0723*AL8/3)</f>
+        <v>58080.289051299747</v>
+      </c>
+      <c r="AZ9">
+        <f>AX9+(AL8+2*1.35*(AL8/3255000)^-0.0723*AL8/3)</f>
+        <v>285952.35125876236</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11.863345736599999</v>
       </c>
@@ -2234,15 +2723,15 @@
         <v>-1.305056091661605</v>
       </c>
       <c r="AC10">
+        <f t="shared" si="3"/>
+        <v>1.2149924069721456</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="4"/>
+        <v>-2.5200484986337504</v>
+      </c>
+      <c r="AE10">
         <f t="shared" si="5"/>
-        <v>1.2149924069721456</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="6"/>
-        <v>-2.5200484986337504</v>
-      </c>
-      <c r="AE10">
-        <f t="shared" si="7"/>
         <v>8.087888554101534</v>
       </c>
       <c r="AF10">
@@ -2250,82 +2739,86 @@
         <v>-5.1314910201021045</v>
       </c>
       <c r="AG10">
+        <f t="shared" si="6"/>
+        <v>-0.48663318774554876</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="6"/>
+        <v>1.1334847981665774</v>
+      </c>
+      <c r="AI10" s="1">
         <f t="shared" si="8"/>
-        <v>-0.48663318774554876</v>
-      </c>
-      <c r="AH10">
-        <f t="shared" si="8"/>
-        <v>1.1334847981665774</v>
-      </c>
-      <c r="AI10" s="1">
+        <v>0.31158299001978484</v>
+      </c>
+      <c r="AJ10" s="1">
+        <f t="shared" si="9"/>
+        <v>0.30591313299244016</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="10"/>
+        <v>7.5696355831523254</v>
+      </c>
+      <c r="AL10">
+        <f>(X10+Y10+Z10)/3</f>
+        <v>188604.79414103334</v>
+      </c>
+      <c r="AM10">
+        <f>Z10-(Y10+X10)/2</f>
+        <v>294678.32969245</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="11"/>
+        <v>-0.67032476016571307</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="7"/>
+        <v>-0.22304918350314507</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ10" s="1">
+        <f t="shared" si="12"/>
+        <v>1.6587034312572033</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="13"/>
+        <v>4.7099254629688199</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="14"/>
+        <v>-0.36430180670442502</v>
+      </c>
+      <c r="AT10" s="1">
         <f t="shared" si="15"/>
-        <v>0.31158299001978484</v>
-      </c>
-      <c r="AJ10">
+        <v>-2.5840718943886407</v>
+      </c>
+      <c r="AU10">
         <f t="shared" si="16"/>
-        <v>7.5696355831523254</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="2"/>
-        <v>188604.79414103334</v>
-      </c>
-      <c r="AL10">
-        <f t="shared" si="3"/>
-        <v>294678.32969245</v>
-      </c>
-      <c r="AM10">
+        <v>1.1908668422987512</v>
+      </c>
+      <c r="AV10" s="1">
         <f t="shared" si="17"/>
-        <v>-0.67384746610910518</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="9"/>
-        <v>-0.22234165345089188</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP10" s="1">
-        <f t="shared" si="18"/>
-        <v>1.6587034312572033</v>
-      </c>
-      <c r="AQ10">
-        <f t="shared" si="19"/>
-        <v>4.7099254629688199</v>
-      </c>
-      <c r="AR10">
-        <f t="shared" si="20"/>
-        <v>-0.3710695971258588</v>
-      </c>
-      <c r="AS10" s="1">
-        <f t="shared" si="10"/>
-        <v>-3.0884695398661051</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="21"/>
-        <v>1.1909173767871495</v>
-      </c>
-      <c r="AU10" s="1">
-        <f t="shared" si="22"/>
-        <v>8.447435794331847</v>
-      </c>
-      <c r="AV10">
-        <f t="shared" si="11"/>
-        <v>-66.405675794773231</v>
+        <v>8.4470773422221797</v>
       </c>
       <c r="AW10">
-        <f t="shared" si="12"/>
-        <v>-312.76578331145458</v>
+        <f>AO10*AP10*(AN10*0.01*((AD10-AD9)/3+(AE10-AE9))-2*0.01*((AD10-AD9)/3-(AE10-AE9)/2))</f>
+        <v>-66.900692184124352</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="13"/>
-        <v>71380.849551002437</v>
+        <f>AO10*AP10*(AN10*AR10*0.01*((AD10-AD9)/3+(AE10-AE9))-2*AR10*0.01*((AD10-AD9)/3-(AE10-AE9)/2))</f>
+        <v>-315.09727360824644</v>
       </c>
       <c r="AY10">
-        <f t="shared" si="14"/>
-        <v>342838.73665139417</v>
+        <f>AW10+(AL9-1.35*(AL9/3255000)^-0.0723*AL9/3)</f>
+        <v>71380.354534613085</v>
+      </c>
+      <c r="AZ10">
+        <f>AX10+(AL9+2*1.35*(AL9/3255000)^-0.0723*AL9/3)</f>
+        <v>342836.40516109735</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13.559501474499999</v>
       </c>
@@ -2412,15 +2905,15 @@
         <v>-1.742412368716928</v>
       </c>
       <c r="AC11">
+        <f t="shared" si="3"/>
+        <v>1.2742085942340333</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="4"/>
+        <v>-3.0166209629509613</v>
+      </c>
+      <c r="AE11">
         <f t="shared" si="5"/>
-        <v>1.2742085942340333</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="6"/>
-        <v>-3.0166209629509613</v>
-      </c>
-      <c r="AE11">
-        <f t="shared" si="7"/>
         <v>9.2382312100566431</v>
       </c>
       <c r="AF11">
@@ -2428,82 +2921,86 @@
         <v>-6.0711259122924277</v>
       </c>
       <c r="AG11">
+        <f t="shared" si="6"/>
+        <v>-0.49657246431721092</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="6"/>
+        <v>1.1503426559551091</v>
+      </c>
+      <c r="AI11" s="1">
         <f t="shared" si="8"/>
-        <v>-0.49657246431721092</v>
-      </c>
-      <c r="AH11">
-        <f t="shared" si="8"/>
-        <v>1.1503426559551091</v>
-      </c>
-      <c r="AI11" s="1">
+        <v>0.32653663827628593</v>
+      </c>
+      <c r="AJ11" s="1">
+        <f t="shared" si="9"/>
+        <v>0.31727968592252298</v>
+      </c>
+      <c r="AK11" s="2">
+        <f t="shared" si="10"/>
+        <v>7.303439964180833</v>
+      </c>
+      <c r="AL11">
+        <f>(X11+Y11+Z11)/3</f>
+        <v>213458.34164</v>
+      </c>
+      <c r="AM11">
+        <f>Z11-(Y11+X11)/2</f>
+        <v>332296.6699485</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="11"/>
+        <v>-0.6774018433402893</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="7"/>
+        <v>-0.22654275773633886</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ11" s="1">
+        <f t="shared" si="12"/>
+        <v>1.643924492236746</v>
+      </c>
+      <c r="AR11">
+        <f t="shared" si="13"/>
+        <v>4.6367985768320761</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="14"/>
+        <v>-0.34935663398038058</v>
+      </c>
+      <c r="AT11" s="1">
         <f t="shared" si="15"/>
-        <v>0.32653663827628593</v>
-      </c>
-      <c r="AJ11">
+        <v>-3.0005007427404506</v>
+      </c>
+      <c r="AU11">
         <f t="shared" si="16"/>
-        <v>7.303439964180833</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="2"/>
-        <v>213458.34164</v>
-      </c>
-      <c r="AL11">
-        <f t="shared" si="3"/>
-        <v>332296.6699485</v>
-      </c>
-      <c r="AM11">
+        <v>1.1010999111543833</v>
+      </c>
+      <c r="AV11" s="1">
         <f t="shared" si="17"/>
-        <v>-0.68320990084510735</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="9"/>
-        <v>-0.22536352828122383</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP11" s="1">
-        <f t="shared" si="18"/>
-        <v>1.643924492236746</v>
-      </c>
-      <c r="AQ11">
-        <f t="shared" si="19"/>
-        <v>4.6367985768320761</v>
-      </c>
-      <c r="AR11">
-        <f t="shared" si="20"/>
-        <v>-0.35959908532236984</v>
-      </c>
-      <c r="AS11" s="1">
-        <f t="shared" si="10"/>
-        <v>-3.5879995235852236</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="21"/>
-        <v>1.1012518755035057</v>
-      </c>
-      <c r="AU11" s="1">
-        <f t="shared" si="22"/>
-        <v>9.4582634162262647</v>
-      </c>
-      <c r="AV11">
-        <f t="shared" si="11"/>
-        <v>-67.738538567365552</v>
+        <v>9.4569582481027457</v>
       </c>
       <c r="AW11">
-        <f t="shared" si="12"/>
-        <v>-314.08995922584523</v>
+        <f>AO11*AP11*(AN11*0.01*((AD11-AD10)/3+(AE11-AE10))-2*0.01*((AD11-AD10)/3-(AE11-AE10)/2))</f>
+        <v>-68.574689602150954</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="13"/>
-        <v>84257.249204702486</v>
+        <f>AO11*AP11*(AN11*AR11*0.01*((AD11-AD10)/3+(AE11-AE10))-2*AR11*0.01*((AD11-AD10)/3-(AE11-AE10)/2))</f>
+        <v>-317.96702315395481</v>
       </c>
       <c r="AY11">
-        <f t="shared" si="14"/>
-        <v>396850.31697733444</v>
+        <f>AW11+(AL10-1.35*(AL10/3255000)^-0.0723*AL10/3)</f>
+        <v>84256.413053667711</v>
+      </c>
+      <c r="AZ11">
+        <f>AX11+(AL10+2*1.35*(AL10/3255000)^-0.0723*AL10/3)</f>
+        <v>396846.43991340633</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15.2057996294</v>
       </c>
@@ -2590,15 +3087,15 @@
         <v>-2.2197631133044293</v>
       </c>
       <c r="AC12">
+        <f t="shared" si="3"/>
+        <v>1.3307418346858286</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="4"/>
+        <v>-3.550504947990258</v>
+      </c>
+      <c r="AE12">
         <f t="shared" si="5"/>
-        <v>1.3307418346858286</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="6"/>
-        <v>-3.550504947990258</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="7"/>
         <v>10.393042696659142</v>
       </c>
       <c r="AF12">
@@ -2606,82 +3103,86 @@
         <v>-7.0463239427499289</v>
       </c>
       <c r="AG12">
+        <f t="shared" si="6"/>
+        <v>-0.53388398503929668</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="6"/>
+        <v>1.1548114866024992</v>
+      </c>
+      <c r="AI12" s="1">
         <f t="shared" si="8"/>
-        <v>-0.53388398503929668</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="8"/>
-        <v>1.1548114866024992</v>
-      </c>
-      <c r="AI12" s="1">
+        <v>0.34162324274214445</v>
+      </c>
+      <c r="AJ12" s="1">
+        <f t="shared" si="9"/>
+        <v>0.32744299392804577</v>
+      </c>
+      <c r="AK12" s="2">
+        <f t="shared" si="10"/>
+        <v>7.06542338325524</v>
+      </c>
+      <c r="AL12">
+        <f>(X12+Y12+Z12)/3</f>
+        <v>239369.36507900001</v>
+      </c>
+      <c r="AM12">
+        <f>Z12-(Y12+X12)/2</f>
+        <v>372704.62721100001</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="11"/>
+        <v>-0.68378073499504788</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="7"/>
+        <v>-0.22981926632994287</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ12" s="1">
+        <f t="shared" si="12"/>
+        <v>1.630363889996677</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="13"/>
+        <v>4.571088433100793</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="14"/>
+        <v>-0.37215308064260683</v>
+      </c>
+      <c r="AT12" s="1">
         <f t="shared" si="15"/>
-        <v>0.34162324274214445</v>
-      </c>
-      <c r="AJ12">
+        <v>-3.4379979947659156</v>
+      </c>
+      <c r="AU12">
         <f t="shared" si="16"/>
-        <v>7.06542338325524</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="2"/>
-        <v>239369.36507900001</v>
-      </c>
-      <c r="AL12">
-        <f t="shared" si="3"/>
-        <v>372704.62721100001</v>
-      </c>
-      <c r="AM12">
+        <v>1.1365431160343777</v>
+      </c>
+      <c r="AV12" s="1">
         <f t="shared" si="17"/>
-        <v>-0.69276231734804916</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="9"/>
-        <v>-0.22797878523303453</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP12" s="1">
-        <f t="shared" si="18"/>
-        <v>1.630363889996677</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="19"/>
-        <v>4.571088433100793</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="20"/>
-        <v>-0.38839030100637473</v>
-      </c>
-      <c r="AS12" s="1">
-        <f t="shared" si="10"/>
-        <v>-4.1182482565742582</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="21"/>
-        <v>1.13689659371195</v>
-      </c>
-      <c r="AU12" s="1">
-        <f t="shared" si="22"/>
-        <v>10.502796867054588</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="11"/>
-        <v>-70.682001499342462</v>
+        <v>10.499531394833886</v>
       </c>
       <c r="AW12">
-        <f t="shared" si="12"/>
-        <v>-323.09367948205715</v>
+        <f>AO12*AP12*(AN12*0.01*((AD12-AD11)/3+(AE12-AE11))-2*0.01*((AD12-AD11)/3-(AE12-AE11)/2))</f>
+        <v>-72.002187519057358</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="13"/>
-        <v>96417.861007089043</v>
+        <f>AO12*AP12*(AN12*AR12*0.01*((AD12-AD11)/3+(AE12-AE11))-2*AR12*0.01*((AD12-AD11)/3-(AE12-AE11)/2))</f>
+        <v>-329.12836652631728</v>
       </c>
       <c r="AY12">
-        <f t="shared" si="14"/>
-        <v>447074.8452233412</v>
+        <f>AW12+(AL11-1.35*(AL11/3255000)^-0.0723*AL11/3)</f>
+        <v>96416.540821069328</v>
+      </c>
+      <c r="AZ12">
+        <f>AX12+(AL11+2*1.35*(AL11/3255000)^-0.0723*AL11/3)</f>
+        <v>447068.81053629692</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16.7294617465</v>
       </c>
@@ -2768,15 +3269,15 @@
         <v>-2.831527778097831</v>
       </c>
       <c r="AC13">
+        <f t="shared" si="3"/>
+        <v>1.3737568208773112</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="4"/>
+        <v>-4.2052845989751422</v>
+      </c>
+      <c r="AE13">
         <f t="shared" si="5"/>
-        <v>1.3737568208773112</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="6"/>
-        <v>-4.2052845989751422</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="7"/>
         <v>11.595556534490276</v>
       </c>
       <c r="AF13">
@@ -2784,82 +3285,86 @@
         <v>-8.15738474899333</v>
       </c>
       <c r="AG13">
+        <f t="shared" si="6"/>
+        <v>-0.65477965098488422</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="6"/>
+        <v>1.202513837831134</v>
+      </c>
+      <c r="AI13" s="1">
         <f t="shared" si="8"/>
-        <v>-0.65477965098488422</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="8"/>
-        <v>1.202513837831134</v>
-      </c>
-      <c r="AI13" s="1">
+        <v>0.3626634553043469</v>
+      </c>
+      <c r="AJ13" s="1">
+        <f t="shared" si="9"/>
+        <v>0.33476333451491136</v>
+      </c>
+      <c r="AK13" s="2">
+        <f t="shared" si="10"/>
+        <v>6.8939868355534699</v>
+      </c>
+      <c r="AL13">
+        <f>(X13+Y13+Z13)/3</f>
+        <v>260588.73698333334</v>
+      </c>
+      <c r="AM13">
+        <f>Z13-(Y13+X13)/2</f>
+        <v>403312.17996999994</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="11"/>
+        <v>-0.68840540814823814</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="7"/>
+        <v>-0.23227564477322588</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ13" s="1">
+        <f t="shared" si="12"/>
+        <v>1.6203827546428546</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="13"/>
+        <v>4.5235484916471487</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="14"/>
+        <v>-0.30929416041443997</v>
+      </c>
+      <c r="AT13" s="1">
         <f t="shared" si="15"/>
-        <v>0.3626634553043469</v>
-      </c>
-      <c r="AJ13">
+        <v>-3.7983487438786976</v>
+      </c>
+      <c r="AU13">
         <f t="shared" si="16"/>
-        <v>6.8939868355534699</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="2"/>
-        <v>260588.73698333334</v>
-      </c>
-      <c r="AL13">
-        <f t="shared" si="3"/>
-        <v>403312.17996999994</v>
-      </c>
-      <c r="AM13">
+        <v>0.92391886603299123</v>
+      </c>
+      <c r="AV13" s="1">
         <f t="shared" si="17"/>
-        <v>-0.70626688089945577</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="9"/>
-        <v>-0.2286112279893871</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP13" s="1">
-        <f t="shared" si="18"/>
-        <v>1.6203827546428546</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="19"/>
-        <v>4.5235484916471487</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="20"/>
-        <v>-0.33534312481130202</v>
-      </c>
-      <c r="AS13" s="1">
-        <f t="shared" si="10"/>
-        <v>-4.4836620812594985</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="21"/>
-        <v>0.92466753930274659</v>
-      </c>
-      <c r="AU13" s="1">
-        <f t="shared" si="22"/>
-        <v>11.355564494686204</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="11"/>
-        <v>-80.216079868143424</v>
+        <v>11.346370262988003</v>
       </c>
       <c r="AW13">
-        <f t="shared" si="12"/>
-        <v>-362.86132709338733</v>
+        <f>AO13*AP13*(AN13*0.01*((AD13-AD12)/3+(AE13-AE12))-2*0.01*((AD13-AD12)/3-(AE13-AE12)/2))</f>
+        <v>-83.019865723825845</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="13"/>
-        <v>109202.75926705413</v>
+        <f>AO13*AP13*(AN13*AR13*0.01*((AD13-AD12)/3+(AE13-AE12))-2*AR13*0.01*((AD13-AD12)/3-(AE13-AE12)/2))</f>
+        <v>-375.54438837176116</v>
       </c>
       <c r="AY13">
-        <f t="shared" si="14"/>
-        <v>499179.28321606206</v>
+        <f>AW13+(AL12-1.35*(AL12/3255000)^-0.0723*AL12/3)</f>
+        <v>109199.95548119846</v>
+      </c>
+      <c r="AZ13">
+        <f>AX13+(AL12+2*1.35*(AL12/3255000)^-0.0723*AL12/3)</f>
+        <v>499166.60015478369</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18.081688816100002</v>
       </c>
@@ -2946,15 +3451,15 @@
         <v>-3.327809748108379</v>
       </c>
       <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>1.4086099955569944</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="4"/>
+        <v>-4.7364197436653734</v>
+      </c>
+      <c r="AE14">
         <f t="shared" si="5"/>
-        <v>1.4086099955569944</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" si="6"/>
-        <v>-4.7364197436653734</v>
-      </c>
-      <c r="AE14">
-        <f t="shared" si="7"/>
         <v>12.760909153627127</v>
       </c>
       <c r="AF14">
@@ -2962,82 +3467,86 @@
         <v>-9.1536293669038784</v>
       </c>
       <c r="AG14">
+        <f t="shared" si="6"/>
+        <v>-0.53113514469023126</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="6"/>
+        <v>1.1653526191368506</v>
+      </c>
+      <c r="AI14" s="1">
         <f t="shared" si="8"/>
-        <v>-0.53113514469023126</v>
-      </c>
-      <c r="AH14">
-        <f t="shared" si="8"/>
-        <v>1.1653526191368506</v>
-      </c>
-      <c r="AI14" s="1">
+        <v>0.37116632417362727</v>
+      </c>
+      <c r="AJ14" s="1">
+        <f t="shared" si="9"/>
+        <v>0.34045131512818549</v>
+      </c>
+      <c r="AK14" s="2">
+        <f t="shared" si="10"/>
+        <v>6.7607788586618058</v>
+      </c>
+      <c r="AL14">
+        <f>(X14+Y14+Z14)/3</f>
+        <v>278776.51919733331</v>
+      </c>
+      <c r="AM14">
+        <f>Z14-(Y14+X14)/2</f>
+        <v>428853.21413350001</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="11"/>
+        <v>-0.69201640323305158</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="7"/>
+        <v>-0.23424361447858685</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ14" s="1">
+        <f t="shared" si="12"/>
+        <v>1.6124979926182434</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="13"/>
+        <v>4.4864771021003254</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="14"/>
+        <v>-0.26804191390321302</v>
+      </c>
+      <c r="AT14" s="1">
         <f t="shared" si="15"/>
-        <v>0.37116632417362727</v>
-      </c>
-      <c r="AJ14">
+        <v>-4.108460882020605</v>
+      </c>
+      <c r="AU14">
         <f t="shared" si="16"/>
-        <v>6.7607788586618058</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="2"/>
-        <v>278776.51919733331</v>
-      </c>
-      <c r="AL14">
-        <f t="shared" si="3"/>
-        <v>428853.21413350001</v>
-      </c>
-      <c r="AM14">
+        <v>0.78731349239256376</v>
+      </c>
+      <c r="AV14" s="1">
         <f t="shared" si="17"/>
-        <v>-0.71178574033803288</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="9"/>
-        <v>-0.23016513275475886</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP14" s="1">
-        <f t="shared" si="18"/>
-        <v>1.6124979926182434</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="19"/>
-        <v>4.4864771021003254</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="20"/>
-        <v>-0.29252058132411635</v>
-      </c>
-      <c r="AS14" s="1">
-        <f t="shared" si="10"/>
-        <v>-4.753325914407565</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="21"/>
-        <v>0.78811185787231819</v>
-      </c>
-      <c r="AU14" s="1">
-        <f t="shared" si="22"/>
-        <v>12.0799269471497</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="11"/>
-        <v>-69.817187869402062</v>
+        <v>12.067689855959882</v>
       </c>
       <c r="AW14">
-        <f t="shared" si="12"/>
-        <v>-313.23321470910889</v>
+        <f>AO14*AP14*(AN14*0.01*((AD14-AD13)/3+(AE14-AE13))-2*0.01*((AD14-AD13)/3-(AE14-AE13)/2))</f>
+        <v>-72.755692427366995</v>
       </c>
       <c r="AX14">
-        <f t="shared" si="13"/>
-        <v>119767.75464147859</v>
+        <f>AO14*AP14*(AN14*AR14*0.01*((AD14-AD13)/3+(AE14-AE13))-2*AR14*0.01*((AD14-AD13)/3-(AE14-AE13)/2))</f>
+        <v>-326.416748122836</v>
       </c>
       <c r="AY14">
-        <f t="shared" si="14"/>
-        <v>541777.83407659491</v>
+        <f>AW14+(AL13-1.35*(AL13/3255000)^-0.0723*AL13/3)</f>
+        <v>119764.81613692062</v>
+      </c>
+      <c r="AZ14">
+        <f>AX14+(AL13+2*1.35*(AL13/3255000)^-0.0723*AL13/3)</f>
+        <v>541764.65054318123</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18.802809787099999</v>
       </c>
@@ -3124,15 +3633,15 @@
         <v>-4.1379641983745552</v>
       </c>
       <c r="AC15">
+        <f t="shared" si="3"/>
+        <v>1.4058753532760144</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="4"/>
+        <v>-5.5438395516505699</v>
+      </c>
+      <c r="AE15">
         <f t="shared" si="5"/>
-        <v>1.4058753532760144</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="6"/>
-        <v>-5.5438395516505699</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="7"/>
         <v>14.036175153849184</v>
       </c>
       <c r="AF15">
@@ -3140,82 +3649,86 @@
         <v>-10.466391075570055</v>
       </c>
       <c r="AG15">
+        <f t="shared" si="6"/>
+        <v>-0.80741980798519641</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="6"/>
+        <v>1.2752660002220573</v>
+      </c>
+      <c r="AI15" s="1">
         <f t="shared" si="8"/>
-        <v>-0.80741980798519641</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="8"/>
-        <v>1.2752660002220573</v>
-      </c>
-      <c r="AI15" s="1">
+        <v>0.39496796605094125</v>
+      </c>
+      <c r="AJ15" s="1">
+        <f t="shared" si="9"/>
+        <v>0.34001259539053408</v>
+      </c>
+      <c r="AK15" s="2">
+        <f t="shared" si="10"/>
+        <v>6.7710533255857257</v>
+      </c>
+      <c r="AL15">
+        <f>(X15+Y15+Z15)/3</f>
+        <v>277316.525586</v>
+      </c>
+      <c r="AM15">
+        <f>Z15-(Y15+X15)/2</f>
+        <v>414015.90840900003</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="11"/>
+        <v>-0.69173733386932368</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="7"/>
+        <v>-0.23408991114408353</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ15" s="1">
+        <f t="shared" si="12"/>
+        <v>1.6131102787265272</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="13"/>
+        <v>4.4893407615250052</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="14"/>
+        <v>2.1498631751122637E-2</v>
+      </c>
+      <c r="AT15" s="1">
         <f t="shared" si="15"/>
-        <v>0.39496796605094125</v>
-      </c>
-      <c r="AJ15">
+        <v>-4.0835287331357462</v>
+      </c>
+      <c r="AU15">
         <f t="shared" si="16"/>
-        <v>6.7710533255857257</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="2"/>
-        <v>277316.525586</v>
-      </c>
-      <c r="AL15">
-        <f t="shared" si="3"/>
-        <v>414015.90840900003</v>
-      </c>
-      <c r="AM15">
+        <v>-6.322892752378656E-2</v>
+      </c>
+      <c r="AV15" s="1">
         <f t="shared" si="17"/>
-        <v>-0.72742597455828339</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="9"/>
-        <v>-0.2268331433044945</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP15" s="1">
-        <f t="shared" si="18"/>
-        <v>1.6131102787265272</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="19"/>
-        <v>4.4893407615250052</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="20"/>
-        <v>2.5024925770130362E-2</v>
-      </c>
-      <c r="AS15" s="1">
-        <f t="shared" si="10"/>
-        <v>-5.1806276788023444</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="21"/>
-        <v>-6.335938081343731E-2</v>
-      </c>
-      <c r="AU15" s="1">
-        <f t="shared" si="22"/>
-        <v>12.034712490568165</v>
-      </c>
-      <c r="AV15">
-        <f t="shared" si="11"/>
-        <v>-91.209972126859455</v>
+        <v>12.009933715677382</v>
       </c>
       <c r="AW15">
-        <f t="shared" si="12"/>
-        <v>-409.47264572666978</v>
+        <f>AO15*AP15*(AN15*0.01*((AD15-AD14)/3+(AE15-AE14))-2*0.01*((AD15-AD14)/3-(AE15-AE14)/2))</f>
+        <v>-97.252632727566976</v>
       </c>
       <c r="AX15">
-        <f t="shared" si="13"/>
-        <v>128843.11669360606</v>
+        <f>AO15*AP15*(AN15*AR15*0.01*((AD15-AD14)/3+(AE15-AE14))-2*AR15*0.01*((AD15-AD14)/3-(AE15-AE14)/2))</f>
+        <v>-436.60020826948721</v>
       </c>
       <c r="AY15">
-        <f t="shared" si="14"/>
-        <v>578051.43161480746</v>
+        <f>AW15+(AL14-1.35*(AL14/3255000)^-0.0723*AL14/3)</f>
+        <v>128837.07403300535</v>
+      </c>
+      <c r="AZ15">
+        <f>AX15+(AL14+2*1.35*(AL14/3255000)^-0.0723*AL14/3)</f>
+        <v>578024.30405226466</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18.943144225699999</v>
       </c>
@@ -3302,15 +3815,15 @@
         <v>-5.6187271480327317</v>
       </c>
       <c r="AC16">
+        <f t="shared" si="3"/>
+        <v>1.3781554466226915</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="4"/>
+        <v>-6.9968825946554229</v>
+      </c>
+      <c r="AE16">
         <f t="shared" si="5"/>
-        <v>1.3781554466226915</v>
-      </c>
-      <c r="AD16">
-        <f t="shared" si="6"/>
-        <v>-6.9968825946554229</v>
-      </c>
-      <c r="AE16">
-        <f t="shared" si="7"/>
         <v>15.527784505235244</v>
       </c>
       <c r="AF16">
@@ -3318,82 +3831,86 @@
         <v>-12.446164875978232</v>
       </c>
       <c r="AG16">
+        <f t="shared" si="6"/>
+        <v>-1.4530430430048531</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="6"/>
+        <v>1.4916093513860602</v>
+      </c>
+      <c r="AI16" s="1">
         <f t="shared" si="8"/>
-        <v>-1.4530430430048531</v>
-      </c>
-      <c r="AH16">
-        <f t="shared" si="8"/>
-        <v>1.4916093513860602</v>
-      </c>
-      <c r="AI16" s="1">
+        <v>0.45060405058406117</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.33549289589960918</v>
+      </c>
+      <c r="AK16" s="2">
+        <f t="shared" si="10"/>
+        <v>6.8769010888392366</v>
+      </c>
+      <c r="AL16">
+        <f>(X16+Y16+Z16)/3</f>
+        <v>262834.2941623333</v>
+      </c>
+      <c r="AM16">
+        <f>Z16-(Y16+X16)/2</f>
+        <v>376239.58324000001</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="11"/>
+        <v>-0.68886770580381718</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="7"/>
+        <v>-0.23252509827629067</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ16" s="1">
+        <f t="shared" si="12"/>
+        <v>1.6193778492942361</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="13"/>
+        <v>4.5188002346617901</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="14"/>
+        <v>0.21139637080086707</v>
+      </c>
+      <c r="AT16" s="1">
         <f t="shared" si="15"/>
-        <v>0.45060405058406117</v>
-      </c>
-      <c r="AJ16">
+        <v>-3.8365783754239442</v>
+      </c>
+      <c r="AU16">
         <f t="shared" si="16"/>
-        <v>6.8769010888392366</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="2"/>
-        <v>262834.2941623333</v>
-      </c>
-      <c r="AL16">
-        <f t="shared" si="3"/>
-        <v>376239.58324000001</v>
-      </c>
-      <c r="AM16">
+        <v>-0.63010684692448493</v>
+      </c>
+      <c r="AV16" s="1">
         <f t="shared" si="17"/>
-        <v>-0.76512400948583148</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="9"/>
-        <v>-0.21763406747489411</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP16" s="1">
-        <f t="shared" si="18"/>
-        <v>1.6193778492942361</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="19"/>
-        <v>4.5188002346617901</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="20"/>
-        <v>0.2854538035205183</v>
-      </c>
-      <c r="AS16" s="1">
-        <f t="shared" si="10"/>
-        <v>-5.1537314408809491</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="21"/>
-        <v>-0.63349142811859005</v>
-      </c>
-      <c r="AU16" s="1">
-        <f t="shared" si="22"/>
-        <v>11.497073033603119</v>
-      </c>
-      <c r="AV16">
-        <f t="shared" si="11"/>
-        <v>-136.69753729197421</v>
+        <v>11.435647139818961</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="12"/>
-        <v>-617.70886359266194</v>
+        <f>AO16*AP16*(AN16*0.01*((AD16-AD15)/3+(AE16-AE15))-2*0.01*((AD16-AD15)/3-(AE16-AE15)/2))</f>
+        <v>-152.69014219764122</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="13"/>
-        <v>128065.78208753985</v>
+        <f>AO16*AP16*(AN16*AR16*0.01*((AD16-AD15)/3+(AE16-AE15))-2*AR16*0.01*((AD16-AD15)/3-(AE16-AE15)/2))</f>
+        <v>-689.97625039324328</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="14"/>
-        <v>574926.90864474373</v>
+        <f>AW16+(AL15-1.35*(AL15/3255000)^-0.0723*AL15/3)</f>
+        <v>128049.78948263418</v>
+      </c>
+      <c r="AZ16">
+        <f>AX16+(AL15+2*1.35*(AL15/3255000)^-0.0723*AL15/3)</f>
+        <v>574854.64125794324</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19.166691396400001</v>
       </c>
@@ -3480,15 +3997,15 @@
         <v>-6.1987397390733445</v>
       </c>
       <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>1.3723580504668411</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="4"/>
+        <v>-7.5710977895401861</v>
+      </c>
+      <c r="AE17">
         <f t="shared" si="5"/>
-        <v>1.3723580504668411</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="6"/>
-        <v>-7.5710977895401861</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="7"/>
         <v>16.718768563182113</v>
       </c>
       <c r="AF17">
@@ -3496,82 +4013,86 @@
         <v>-13.525000730818844</v>
       </c>
       <c r="AG17">
+        <f t="shared" si="6"/>
+        <v>-0.57421519488476314</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="6"/>
+        <v>1.1909840579468689</v>
+      </c>
+      <c r="AI17" s="1">
         <f t="shared" si="8"/>
-        <v>-0.57421519488476314</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="8"/>
-        <v>1.1909840579468689</v>
-      </c>
-      <c r="AI17" s="1">
+        <v>0.45285020609790444</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f t="shared" si="9"/>
+        <v>0.33453061014343</v>
+      </c>
+      <c r="AK17" s="2">
+        <f t="shared" si="10"/>
+        <v>6.8994370550261017</v>
+      </c>
+      <c r="AL17">
+        <f>(X17+Y17+Z17)/3</f>
+        <v>259877.62820366668</v>
+      </c>
+      <c r="AM17">
+        <f>Z17-(Y17+X17)/2</f>
+        <v>364252.63082599995</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="11"/>
+        <v>-0.68825799205375482</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="7"/>
+        <v>-0.23219625165145891</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ17" s="1">
+        <f t="shared" si="12"/>
+        <v>1.6207029186074151</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="13"/>
+        <v>4.5250627449405583</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="14"/>
+        <v>4.3076677322647083E-2</v>
+      </c>
+      <c r="AT17" s="1">
         <f t="shared" si="15"/>
-        <v>0.45285020609790444</v>
-      </c>
-      <c r="AJ17">
+        <v>-3.7862460250845178</v>
+      </c>
+      <c r="AU17">
         <f t="shared" si="16"/>
-        <v>6.8994370550261017</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="2"/>
-        <v>259877.62820366668</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="3"/>
-        <v>364252.63082599995</v>
-      </c>
-      <c r="AM17">
+        <v>-0.1287675208680544</v>
+      </c>
+      <c r="AV17" s="1">
         <f t="shared" si="17"/>
-        <v>-0.76668055046195127</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="9"/>
-        <v>-0.21692868767426146</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP17" s="1">
-        <f t="shared" si="18"/>
-        <v>1.6207029186074151</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="19"/>
-        <v>4.5250627449405583</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="20"/>
-        <v>5.8634759816341822E-2</v>
-      </c>
-      <c r="AS17" s="1">
-        <f t="shared" si="10"/>
-        <v>-5.159665613411188</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="21"/>
-        <v>-0.12947937094162482</v>
-      </c>
-      <c r="AU17" s="1">
-        <f t="shared" si="22"/>
-        <v>11.380653848629876</v>
-      </c>
-      <c r="AV17">
-        <f t="shared" si="11"/>
-        <v>-65.113179433649719</v>
+        <v>11.318085431587756</v>
       </c>
       <c r="AW17">
-        <f t="shared" si="12"/>
-        <v>-294.6412224598381</v>
+        <f>AO17*AP17*(AN17*0.01*((AD17-AD16)/3+(AE17-AE16))-2*0.01*((AD17-AD16)/3-(AE17-AE16)/2))</f>
+        <v>-76.462270135901363</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="13"/>
-        <v>120893.16964911035</v>
+        <f>AO17*AP17*(AN17*AR17*0.01*((AD17-AD16)/3+(AE17-AE16))-2*AR17*0.01*((AD17-AD16)/3-(AE17-AE16)/2))</f>
+        <v>-345.99656998554832</v>
       </c>
       <c r="AY17">
-        <f t="shared" si="14"/>
-        <v>546291.67560745205</v>
+        <f>AW17+(AL16-1.35*(AL16/3255000)^-0.0723*AL16/3)</f>
+        <v>120881.8205584081</v>
+      </c>
+      <c r="AZ17">
+        <f>AX17+(AL16+2*1.35*(AL16/3255000)^-0.0723*AL16/3)</f>
+        <v>546240.32025992638</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18.9103806629</v>
       </c>
@@ -3658,15 +4179,15 @@
         <v>-7.4986021185680096</v>
       </c>
       <c r="AC18">
+        <f t="shared" si="3"/>
+        <v>1.3320275814936875</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="4"/>
+        <v>-8.8306297000616976</v>
+      </c>
+      <c r="AE18">
         <f t="shared" si="5"/>
-        <v>1.3320275814936875</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="6"/>
-        <v>-8.8306297000616976</v>
-      </c>
-      <c r="AE18">
-        <f t="shared" si="7"/>
         <v>18.156405220313669</v>
       </c>
       <c r="AF18">
@@ -3674,82 +4195,86 @@
         <v>-15.327037708963509</v>
       </c>
       <c r="AG18">
+        <f t="shared" si="6"/>
+        <v>-1.2595319105215115</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="6"/>
+        <v>1.4376366571315558</v>
+      </c>
+      <c r="AI18" s="1">
         <f t="shared" si="8"/>
-        <v>-1.2595319105215115</v>
-      </c>
-      <c r="AH18">
-        <f t="shared" si="8"/>
-        <v>1.4376366571315558</v>
-      </c>
-      <c r="AI18" s="1">
+        <v>0.48636443133478047</v>
+      </c>
+      <c r="AJ18" s="1">
+        <f t="shared" si="9"/>
+        <v>0.32766681387278751</v>
+      </c>
+      <c r="AK18" s="2">
+        <f t="shared" si="10"/>
+        <v>7.0601816983666748</v>
+      </c>
+      <c r="AL18">
+        <f>(X18+Y18+Z18)/3</f>
+        <v>239984.43078466668</v>
+      </c>
+      <c r="AM18">
+        <f>Z18-(Y18+X18)/2</f>
+        <v>321106.96157449996</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="11"/>
+        <v>-0.68392175921800802</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="7"/>
+        <v>-0.22989314044834772</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>37174.366906725903</v>
+      </c>
+      <c r="AQ18" s="1">
+        <f t="shared" si="12"/>
+        <v>1.6300614229035937</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="13"/>
+        <v>4.5696376103778009</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="14"/>
+        <v>0.28585219432573578</v>
+      </c>
+      <c r="AT18" s="1">
         <f t="shared" si="15"/>
-        <v>0.48636443133478047</v>
-      </c>
-      <c r="AJ18">
+        <v>-3.4484188086471037</v>
+      </c>
+      <c r="AU18">
         <f t="shared" si="16"/>
-        <v>7.0601816983666748</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="2"/>
-        <v>239984.43078466668</v>
-      </c>
-      <c r="AL18">
-        <f t="shared" si="3"/>
-        <v>321106.96157449996</v>
-      </c>
-      <c r="AM18">
+        <v>-0.87238677285370203</v>
+      </c>
+      <c r="AV18" s="1">
         <f t="shared" si="17"/>
-        <v>-0.79023564756030695</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="9"/>
-        <v>-0.20984175316373219</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP18" s="1">
-        <f t="shared" si="18"/>
-        <v>1.6300614229035937</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" si="19"/>
-        <v>4.5696376103778009</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="20"/>
-        <v>0.42770377364902218</v>
-      </c>
-      <c r="AS18" s="1" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="21"/>
-        <v>-0.87938949909480524</v>
-      </c>
-      <c r="AU18" s="1">
-        <f t="shared" si="22"/>
-        <v>10.60864093052813</v>
-      </c>
-      <c r="AV18">
-        <f t="shared" si="11"/>
-        <v>-114.90704249350522</v>
+        <v>10.524162541483093</v>
       </c>
       <c r="AW18">
-        <f t="shared" si="12"/>
-        <v>-525.0835430756016</v>
+        <f>AO18*AP18*(AN18*0.01*((AD18-AD17)/3+(AE18-AE17))-2*0.01*((AD18-AD17)/3-(AE18-AE17)/2))</f>
+        <v>-135.13434689282164</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="13"/>
-        <v>119367.91099102142</v>
+        <f>AO18*AP18*(AN18*AR18*0.01*((AD18-AD17)/3+(AE18-AE17))-2*AR18*0.01*((AD18-AD17)/3-(AE18-AE17)/2))</f>
+        <v>-617.51499401527826</v>
       </c>
       <c r="AY18">
-        <f t="shared" si="14"/>
-        <v>540142.16500089457</v>
+        <f>AW18+(AL17-1.35*(AL17/3255000)^-0.0723*AL17/3)</f>
+        <v>119347.6836866221</v>
+      </c>
+      <c r="AZ18">
+        <f>AX18+(AL17+2*1.35*(AL17/3255000)^-0.0723*AL17/3)</f>
+        <v>540049.73354995484</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18.596284598899999</v>
       </c>
@@ -3836,7 +4361,7 @@
         <v>-8.3865018885030942</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18.671151548299999</v>
       </c>
@@ -3923,7 +4448,7 @@
         <v>-9.2577310762631306</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18.5911722737</v>
       </c>
@@ -4010,7 +4535,7 @@
         <v>-9.9604393099804724</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17.981935276200002</v>
       </c>

--- a/SMP_PE_ani_e&p.xlsx
+++ b/SMP_PE_ani_e&p.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\My Paper\Geotexile and Geomembrane\anal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11952" tabRatio="196"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>avgT</t>
   </si>
@@ -106,7 +105,28 @@
     <t>ev</t>
   </si>
   <si>
-    <t>eq</t>
+    <t>ev_ela</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>er_from_ev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>p</t>
@@ -117,83 +137,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>D/E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K_p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ev_pla_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dev/deq_pred</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>K_phi</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>D/E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K_p</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eq_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ds_r_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ds_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_r_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_a_pred</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_ela</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>er_from_ev</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev_pla</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dev/deq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ratio^4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dratio</t>
+    <t>eq_pla</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -240,9 +224,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM1" sqref="AM1:AM1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO3" sqref="AO3:AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -615,14 +600,16 @@
     <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.109375" customWidth="1"/>
+    <col min="36" max="36" width="12.88671875" customWidth="1"/>
     <col min="41" max="41" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="12.77734375" customWidth="1"/>
+    <col min="43" max="43" width="8.88671875" customWidth="1"/>
     <col min="44" max="44" width="12.44140625" customWidth="1"/>
     <col min="45" max="45" width="11.21875" customWidth="1"/>
-    <col min="52" max="1032" width="11.5546875"/>
+    <col min="48" max="1028" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,76 +695,64 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.160598911058</v>
       </c>
@@ -871,17 +846,17 @@
         <f>AB2-AC2</f>
         <v>4.850295926548287E-3</v>
       </c>
-      <c r="AE2">
-        <f>P2-AB2/3</f>
-        <v>7.8712636408795333E-8</v>
+      <c r="AE2" s="1">
+        <f>P2-AB2/3-2*(1.35*(AK2/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
+        <v>-1.9700923031221818</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF18" si="1">AB2-P2/2</f>
         <v>-2.36137909226386E-7</v>
       </c>
-      <c r="AJ2">
-        <f>(1.35*(AK2/3255000)^-0.0723)^4</f>
-        <v>26.381866960846768</v>
+      <c r="AJ2" t="e">
+        <f>(( 1.588*EXP(-0.0005387*53))^2-AP2^2)/(2*AP2)+0.4</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2:AK18" si="2">(X2+Y2+Z2)/3</f>
@@ -891,9 +866,17 @@
         <f t="shared" ref="AL2:AL18" si="3">Z2-(Y2+X2)/2</f>
         <v>3475.8422263949997</v>
       </c>
-      <c r="AO2">
-        <f t="shared" ref="AO2" si="4">(3*(1-2*0.33))/(0.0762*0.2606*(AK2)^(0.2606-1))</f>
-        <v>16791.488429039899</v>
+      <c r="AM2" s="1" t="e">
+        <f t="shared" ref="AM2:AM18" si="4">(-2*AJ2-3)/(-2*AJ2+6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN2" t="e">
+        <f t="shared" ref="AN2:AN18" si="5">1/(2+AM2*AQ2-2*0.33*(1+AM2+AQ2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO2" s="1" t="e">
+        <f>3*(1-2*0.33)*(AK2-AK1)/(AC2-AC1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS2">
         <v>0</v>
@@ -902,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.508269369114</v>
       </c>
@@ -989,36 +972,36 @@
         <v>0.14424923787768051</v>
       </c>
       <c r="AC3" s="1">
-        <f t="shared" ref="AC3:AC18" si="5">0.0762*AK3^0.2606-0.5912</f>
+        <f t="shared" ref="AC3:AC18" si="6">0.0762*AK3^0.2606-0.5912</f>
         <v>0.18469952273342194</v>
       </c>
       <c r="AD3" s="1">
-        <f t="shared" ref="AD3:AD18" si="6">AB3-AC3</f>
+        <f t="shared" ref="AD3:AD18" si="7">AB3-AC3</f>
         <v>-4.0450284855741425E-2</v>
       </c>
       <c r="AE3" s="1">
-        <f t="shared" ref="AE3:AE18" si="7">P3-AB3/3</f>
-        <v>0.60385484924843991</v>
+        <f t="shared" ref="AE3:AE18" si="8">P3-AB3/3-2*(1.35*(AK3/3255000)^-0.0723)*(1+0.33)/(9*(1-2*0.33))</f>
+        <v>-1.2189354576242168</v>
       </c>
       <c r="AF3" s="1">
         <f t="shared" si="1"/>
         <v>-0.18171972639281952</v>
       </c>
       <c r="AG3" s="1">
-        <f t="shared" ref="AG3:AH18" si="8">AD3-AD2</f>
+        <f t="shared" ref="AG3:AH18" si="9">AD3-AD2</f>
         <v>-4.5300580782289712E-2</v>
       </c>
       <c r="AH3" s="1">
-        <f t="shared" si="8"/>
-        <v>0.6038547705358035</v>
+        <f t="shared" si="9"/>
+        <v>0.75115684549796491</v>
       </c>
       <c r="AI3" s="1">
         <f>-AG3/AH3</f>
-        <v>7.5018999588418039E-2</v>
-      </c>
-      <c r="AJ3" s="1">
-        <f>(1.35*(AK3/3255000)^-0.0723)^4</f>
-        <v>19.333300496197833</v>
+        <v>6.0307752041131396E-2</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ18" si="10">(( 1.588*EXP(-0.0005387*53))^2-AP3^2)/(2*AP3)+0.4</f>
+        <v>-1.1781895885183802E-2</v>
       </c>
       <c r="AK3" s="1">
         <f t="shared" si="2"/>
@@ -1029,14 +1012,15 @@
         <v>10041.22055317</v>
       </c>
       <c r="AM3" s="1">
-        <v>-0.49972129302590063</v>
+        <f t="shared" si="4"/>
+        <v>-0.49413209706455796</v>
       </c>
       <c r="AN3" s="1">
-        <f t="shared" ref="AN3:AN18" si="9">1/(2+AM3*AQ3-2*0.33*(1+AM3+AQ3))</f>
-        <v>-0.1528159180293685</v>
+        <f t="shared" si="5"/>
+        <v>-0.15365881468008247</v>
       </c>
       <c r="AO3" s="1">
-        <v>37174.366906725903</v>
+        <v>23529.166649066847</v>
       </c>
       <c r="AP3" s="1">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
@@ -1047,217 +1031,185 @@
         <v>7.0824231772072439</v>
       </c>
       <c r="AR3" s="1">
-        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(2*AN3*AO3*AM3)</f>
-        <v>1.5740082678149562E-4</v>
+        <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
+        <v>3.5106196281815254E-3</v>
       </c>
       <c r="AS3" s="1">
         <f>(AS2+AR3)</f>
-        <v>1.5740082678149562E-4</v>
+        <v>3.5106196281815254E-3</v>
       </c>
       <c r="AT3" s="1">
-        <f>(1-AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>0.28232444036357118</v>
+        <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
+        <v>0.29796729341295891</v>
       </c>
       <c r="AU3" s="1">
         <f>AU2+AT3</f>
-        <v>0.28232444036357118</v>
-      </c>
-      <c r="AV3" s="1">
-        <f t="shared" ref="AV3:AV18" si="10">AN3*AO3*(AM3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-19.305860986745682</v>
-      </c>
-      <c r="AW3" s="1">
-        <f t="shared" ref="AW3:AW18" si="11">AN3*AO3*(AM3*AQ3*0.01*((AD3-AD2)/3+(AE3-AE2))-2*AQ3*0.01*((AD3-AD2)/3-(AE3-AE2)/2))</f>
-        <v>-136.7322773084687</v>
-      </c>
-      <c r="AX3" s="1">
-        <f t="shared" ref="AX3:AX18" si="12">AV3+(AK2-1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>595.85611938502973</v>
-      </c>
-      <c r="AY3" s="1">
-        <f t="shared" ref="AY3:AY18" si="13">AW3+(AK2+2*1.35*(AK2/3255000)^-0.0723*AK2/3)</f>
-        <v>6179.3681378279798</v>
+        <v>0.29796729341295891</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1.6453933726400001</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.2481810796700001</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.83864446361800005</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.43702442694900001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>0.24640725658500001</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>0.10415921518600001</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>9.2896599822800005E-2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>0.66111647616900004</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>0.46275155698999998</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <v>0.185320649339</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <v>0.122034816881</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>6.5875421232099995E-2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>3.02479383603E-2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>0.28441650916299999</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>0.34307343784099997</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>1.6545970663610001</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>-0.95620495132399996</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>47684</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>12777.895235600001</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>12517.881634699999</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>47819.530009200003</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>58.721910993800002</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="2">
         <v>43.220880601200001</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="2">
         <v>13166.636659</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="2">
         <v>12803.179452300001</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="2">
         <v>50015.061769699998</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="2">
         <v>9.5719944978100004E-4</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="2">
         <f t="shared" si="0"/>
         <v>0.31701430431554378</v>
       </c>
-      <c r="AC4">
-        <f t="shared" si="5"/>
+      <c r="AC4" s="2">
+        <f t="shared" si="6"/>
         <v>0.47917183489631787</v>
       </c>
-      <c r="AD4">
-        <f t="shared" si="6"/>
+      <c r="AD4" s="2">
+        <f t="shared" si="7"/>
         <v>-0.16215753058077409</v>
       </c>
-      <c r="AE4">
-        <f t="shared" si="7"/>
-        <v>1.5489256315891522</v>
-      </c>
-      <c r="AF4">
+      <c r="AE4" s="1">
+        <f t="shared" si="8"/>
+        <v>-0.11820913250696763</v>
+      </c>
+      <c r="AF4" s="2">
         <f t="shared" si="1"/>
         <v>-0.51028422886495628</v>
       </c>
-      <c r="AG4">
-        <f t="shared" si="8"/>
+      <c r="AG4" s="2">
+        <f t="shared" si="9"/>
         <v>-0.12170724572503266</v>
       </c>
-      <c r="AH4">
-        <f t="shared" si="8"/>
-        <v>0.94507078234071229</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" ref="AI4:AI18" si="14">-AG4/AH4</f>
-        <v>0.12878109026245968</v>
+      <c r="AH4" s="2">
+        <f t="shared" si="9"/>
+        <v>1.1007263251172492</v>
+      </c>
+      <c r="AI4" s="2">
+        <f t="shared" ref="AI4:AI18" si="11">-AG4/AH4</f>
+        <v>0.11056994181734359</v>
       </c>
       <c r="AJ4">
-        <f t="shared" ref="AJ4:AJ18" si="15">(1.35*(AK4/3255000)^-0.0723)^4</f>
-        <v>13.52826152917463</v>
-      </c>
-      <c r="AK4">
+        <f t="shared" si="10"/>
+        <v>0.12351657931803256</v>
+      </c>
+      <c r="AK4" s="2">
         <f t="shared" si="2"/>
         <v>25328.292626999999</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="2">
         <f t="shared" si="3"/>
         <v>37030.15371405</v>
       </c>
-      <c r="AM4">
-        <f t="shared" ref="AM4:AM18" si="16">(-2*AI4-3)/(-2*AI4+6)</f>
-        <v>-0.56727861631816423</v>
-      </c>
-      <c r="AN4">
-        <f t="shared" si="9"/>
-        <v>-0.18556598304462929</v>
+      <c r="AM4" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.56441019880209264</v>
+      </c>
+      <c r="AN4" s="2">
+        <f t="shared" si="5"/>
+        <v>-0.18607386486833286</v>
       </c>
       <c r="AO4" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP4">
-        <f t="shared" ref="AP4:AP18" si="17">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP4" s="2">
+        <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
         <v>1.8443558894483842</v>
       </c>
-      <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ18" si="18">(2*AP4+3)/(3-AP4)</f>
+      <c r="AQ4" s="2">
+        <f t="shared" ref="AQ4:AQ18" si="13">(2*AP4+3)/(3-AP4)</f>
         <v>5.7878647222146027</v>
       </c>
-      <c r="AR4">
-        <f t="shared" ref="AR4:AR18" si="19">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(2*AN4*AO4*AM4)</f>
-        <v>-0.11893911997874784</v>
-      </c>
-      <c r="AS4">
-        <f t="shared" ref="AS4:AS18" si="20">AS3+AR4</f>
-        <v>-0.11878171915196635</v>
-      </c>
-      <c r="AT4">
-        <f t="shared" ref="AT4:AT18" si="21">(1-AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>0.92357596706431211</v>
-      </c>
-      <c r="AU4">
+      <c r="AR4" s="1">
+        <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
+        <v>-0.12021609993501292</v>
+      </c>
+      <c r="AS4" s="2">
+        <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
+        <v>-0.11670548030683139</v>
+      </c>
+      <c r="AT4" s="1">
+        <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
+        <v>0.9732790577488255</v>
+      </c>
+      <c r="AU4" s="2">
         <f>AU3+AT4</f>
-        <v>1.2059004074278832</v>
-      </c>
-      <c r="AV4">
-        <f t="shared" si="10"/>
-        <v>-35.395475291860613</v>
-      </c>
-      <c r="AW4">
-        <f t="shared" si="11"/>
-        <v>-204.86422276777867</v>
-      </c>
-      <c r="AX4">
-        <f t="shared" si="12"/>
-        <v>2183.0089568655039</v>
-      </c>
-      <c r="AY4">
-        <f t="shared" si="13"/>
-        <v>17466.077691577491</v>
+        <v>1.2712463511617844</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.1487884125400001</v>
       </c>
@@ -1344,36 +1296,36 @@
         <v>0.22118664939348998</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.68271795400820712</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.46153130461471714</v>
       </c>
-      <c r="AE5">
-        <f t="shared" si="7"/>
-        <v>2.5823189195798366</v>
+      <c r="AE5" s="1">
+        <f t="shared" si="8"/>
+        <v>0.99379187945769587</v>
       </c>
       <c r="AF5">
         <f t="shared" si="1"/>
         <v>-1.10683725196201</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.29937377403394305</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="8"/>
-        <v>1.0333932879906844</v>
+        <f t="shared" si="9"/>
+        <v>1.1120010119646635</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="14"/>
-        <v>0.28969974695310946</v>
+        <f t="shared" si="11"/>
+        <v>0.26922077481297862</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="15"/>
-        <v>11.151610876649848</v>
+        <f t="shared" si="10"/>
+        <v>0.22135107817707983</v>
       </c>
       <c r="AK5">
         <f t="shared" si="2"/>
@@ -1383,59 +1335,43 @@
         <f t="shared" si="3"/>
         <v>74684.303747600003</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.61949210807380273</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="5"/>
+        <v>-0.20939966318642572</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="12"/>
+        <v>1.7322564764106896</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="13"/>
+        <v>5.0992277479901205</v>
+      </c>
+      <c r="AR5" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.26549509390935833</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="15"/>
+        <v>-0.38220057421618969</v>
+      </c>
+      <c r="AT5" s="1">
         <f t="shared" si="16"/>
-        <v>-0.66033264946979509</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="9"/>
-        <v>-0.20174072655267064</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" si="17"/>
-        <v>1.7322564764106896</v>
-      </c>
-      <c r="AQ5">
-        <f t="shared" si="18"/>
-        <v>5.0992277479901205</v>
-      </c>
-      <c r="AR5">
-        <f t="shared" si="19"/>
-        <v>-0.32934333232111207</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" si="20"/>
-        <v>-0.44812505147307841</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" si="21"/>
-        <v>1.1368437003654661</v>
+        <v>1.1994298654238473</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>2.3427441077933491</v>
-      </c>
-      <c r="AV5">
-        <f t="shared" si="10"/>
-        <v>-46.234026759411329</v>
-      </c>
-      <c r="AW5">
-        <f t="shared" si="11"/>
-        <v>-235.75783215290789</v>
-      </c>
-      <c r="AX5">
-        <f t="shared" si="12"/>
-        <v>9090.2575864268474</v>
-      </c>
-      <c r="AY5">
-        <f t="shared" si="13"/>
-        <v>57476.136822474575</v>
+        <v>2.4706762165856317</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4.8111521126300003</v>
       </c>
@@ -1522,36 +1458,36 @@
         <v>0.1159836065091735</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.83484291662911847</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.71885931011994497</v>
       </c>
-      <c r="AE6">
-        <f t="shared" si="7"/>
-        <v>3.616329679161276</v>
+      <c r="AE6" s="1">
+        <f t="shared" si="8"/>
+        <v>2.0767482172350409</v>
       </c>
       <c r="AF6">
         <f t="shared" si="1"/>
         <v>-1.7115118341563267</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.25732800550522783</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="8"/>
-        <v>1.0340107595814394</v>
+        <f t="shared" si="9"/>
+        <v>1.082956337777345</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="14"/>
-        <v>0.24886395341707321</v>
+        <f t="shared" si="11"/>
+        <v>0.23761623301763646</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="15"/>
-        <v>9.8394279946711976</v>
+        <f t="shared" si="10"/>
+        <v>0.28075176266479951</v>
       </c>
       <c r="AK6">
         <f t="shared" si="2"/>
@@ -1561,59 +1497,43 @@
         <f t="shared" si="3"/>
         <v>116883.154572</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.65486914295470655</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="5"/>
+        <v>-0.22338202077670638</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="12"/>
+        <v>1.6671504107658244</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="13"/>
+        <v>4.7524498433249249</v>
+      </c>
+      <c r="AR6" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.35661285901444573</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="15"/>
+        <v>-0.73881343323063542</v>
+      </c>
+      <c r="AT6" s="1">
         <f t="shared" si="16"/>
-        <v>-0.63568792084610481</v>
-      </c>
-      <c r="AN6">
-        <f t="shared" si="9"/>
-        <v>-0.22736895453401912</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP6">
-        <f t="shared" si="17"/>
-        <v>1.6671504107658244</v>
-      </c>
-      <c r="AQ6">
-        <f t="shared" si="18"/>
-        <v>4.7524498433249249</v>
-      </c>
-      <c r="AR6">
-        <f t="shared" si="19"/>
-        <v>-0.30023072452589122</v>
-      </c>
-      <c r="AS6">
-        <f t="shared" si="20"/>
-        <v>-0.74835577599896963</v>
-      </c>
-      <c r="AT6">
-        <f t="shared" si="21"/>
-        <v>1.2064050273393028</v>
+        <v>1.2702070171513755</v>
       </c>
       <c r="AU6">
-        <f t="shared" ref="AU6:AU18" si="22">AU5+AT6</f>
-        <v>3.5491491351326516</v>
-      </c>
-      <c r="AV6">
-        <f t="shared" si="10"/>
-        <v>-50.948872268298175</v>
-      </c>
-      <c r="AW6">
-        <f t="shared" si="11"/>
-        <v>-242.13196002905522</v>
-      </c>
-      <c r="AX6">
-        <f t="shared" si="12"/>
-        <v>19258.022604061596</v>
-      </c>
-      <c r="AY6">
-        <f t="shared" si="13"/>
-        <v>109341.55427861116</v>
+        <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
+        <v>3.7408832337370073</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.5685508673699999</v>
       </c>
@@ -1700,36 +1620,36 @@
         <v>-0.16414932304338326</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.95685247262380524</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.1210017956671885</v>
       </c>
-      <c r="AE7">
-        <f t="shared" si="7"/>
-        <v>4.708119553395461</v>
+      <c r="AE7" s="1">
+        <f t="shared" si="8"/>
+        <v>3.2032072237363423</v>
       </c>
       <c r="AF7">
         <f t="shared" si="1"/>
         <v>-2.490850879233883</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.40214248554724352</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="8"/>
-        <v>1.0917898742341849</v>
+        <f t="shared" si="9"/>
+        <v>1.1264590065013014</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="14"/>
-        <v>0.36833322513576033</v>
+        <f t="shared" si="11"/>
+        <v>0.3569969996478331</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="15"/>
-        <v>8.9826393000799953</v>
+        <f t="shared" si="10"/>
+        <v>0.32177534871517594</v>
       </c>
       <c r="AK7">
         <f t="shared" si="2"/>
@@ -1739,59 +1659,43 @@
         <f t="shared" si="3"/>
         <v>161586.88985345</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.68021752687595349</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="5"/>
+        <v>-0.23291321205215409</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="12"/>
+        <v>1.6235078267812537</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="13"/>
+        <v>4.5383590078501364</v>
+      </c>
+      <c r="AR7" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.41703596138357107</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="15"/>
+        <v>-1.1558493946142065</v>
+      </c>
+      <c r="AT7" s="1">
         <f t="shared" si="16"/>
-        <v>-0.7099429315978435</v>
-      </c>
-      <c r="AN7">
-        <f t="shared" si="9"/>
-        <v>-0.22682266424719957</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP7">
+        <v>1.2960469565141124</v>
+      </c>
+      <c r="AU7">
         <f t="shared" si="17"/>
-        <v>1.6235078267812537</v>
-      </c>
-      <c r="AQ7">
-        <f t="shared" si="18"/>
-        <v>4.5383590078501364</v>
-      </c>
-      <c r="AR7">
-        <f t="shared" si="19"/>
-        <v>-0.4537995045575442</v>
-      </c>
-      <c r="AS7">
-        <f t="shared" si="20"/>
-        <v>-1.2021552805565139</v>
-      </c>
-      <c r="AT7">
-        <f t="shared" si="21"/>
-        <v>1.2320352159115777</v>
-      </c>
-      <c r="AU7">
-        <f t="shared" si="22"/>
-        <v>4.7811843510442298</v>
-      </c>
-      <c r="AV7">
-        <f t="shared" si="10"/>
-        <v>-57.332670713567595</v>
-      </c>
-      <c r="AW7">
-        <f t="shared" si="11"/>
-        <v>-260.1962425770252</v>
-      </c>
-      <c r="AX7">
-        <f t="shared" si="12"/>
-        <v>31140.29181472494</v>
-      </c>
-      <c r="AY7">
-        <f t="shared" si="13"/>
-        <v>165823.71712654593</v>
+        <v>5.0369301902511197</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.3302405671600006</v>
       </c>
@@ -1878,36 +1782,36 @@
         <v>-0.49149247383222239</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0616607449228568</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.5531532187550792</v>
       </c>
-      <c r="AE8">
-        <f t="shared" si="7"/>
-        <v>5.8224228299217398</v>
+      <c r="AE8" s="1">
+        <f t="shared" si="8"/>
+        <v>4.3446149990327241</v>
       </c>
       <c r="AF8">
         <f t="shared" si="1"/>
         <v>-3.320788476487722</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.43215142308789067</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="8"/>
-        <v>1.1143032765262788</v>
+        <f t="shared" si="9"/>
+        <v>1.1414077752963818</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="14"/>
-        <v>0.3878220877489264</v>
+        <f t="shared" si="11"/>
+        <v>0.37861265048389631</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="15"/>
-        <v>8.3527794370607289</v>
+        <f t="shared" si="10"/>
+        <v>0.35307907459838006</v>
       </c>
       <c r="AK8">
         <f t="shared" si="2"/>
@@ -1917,59 +1821,43 @@
         <f t="shared" si="3"/>
         <v>209411.00116514997</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.70008856585589563</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="5"/>
+        <v>-0.2400990567088373</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="12"/>
+        <v>1.5909360061713129</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="13"/>
+        <v>4.3872187774419942</v>
+      </c>
+      <c r="AR8" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.47248658187042636</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="15"/>
+        <v>-1.628335976484633</v>
+      </c>
+      <c r="AT8" s="1">
         <f t="shared" si="16"/>
-        <v>-0.72270042514909505</v>
-      </c>
-      <c r="AN8">
-        <f t="shared" si="9"/>
-        <v>-0.23533692193396238</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP8">
+        <v>1.3381891362660605</v>
+      </c>
+      <c r="AU8">
         <f t="shared" si="17"/>
-        <v>1.5909360061713129</v>
-      </c>
-      <c r="AQ8">
-        <f t="shared" si="18"/>
-        <v>4.3872187774419942</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" si="19"/>
-        <v>-0.49344361910440676</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" si="20"/>
-        <v>-1.6955988996609206</v>
-      </c>
-      <c r="AT8">
-        <f t="shared" si="21"/>
-        <v>1.272345321971087</v>
-      </c>
-      <c r="AU8">
-        <f t="shared" si="22"/>
-        <v>6.0535296730153165</v>
-      </c>
-      <c r="AV8">
-        <f t="shared" si="10"/>
-        <v>-61.344674414788791</v>
-      </c>
-      <c r="AW8">
-        <f t="shared" si="11"/>
-        <v>-269.13250748862686</v>
-      </c>
-      <c r="AX8">
-        <f t="shared" si="12"/>
-        <v>44075.742066235405</v>
-      </c>
-      <c r="AY8">
-        <f t="shared" si="13"/>
-        <v>224538.70594431096</v>
+        <v>6.3751193265171802</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.1081107487</v>
       </c>
@@ -2056,36 +1944,36 @@
         <v>-0.88855303993187196</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1448622709563296</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.0334153108882016</v>
       </c>
-      <c r="AE9">
-        <f t="shared" si="7"/>
-        <v>6.9544037559349565</v>
+      <c r="AE9" s="1">
+        <f t="shared" si="8"/>
+        <v>5.4965951582806625</v>
       </c>
       <c r="AF9">
         <f t="shared" si="1"/>
         <v>-4.2176627445773711</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.48026209213312243</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="8"/>
-        <v>1.1319809260132168</v>
+        <f t="shared" si="9"/>
+        <v>1.1519801592479384</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="14"/>
-        <v>0.42426694752232513</v>
+        <f t="shared" si="11"/>
+        <v>0.41690135743887979</v>
       </c>
       <c r="AJ9">
-        <f t="shared" si="15"/>
-        <v>7.9097214262736575</v>
+        <f t="shared" si="10"/>
+        <v>0.37737655620437677</v>
       </c>
       <c r="AK9">
         <f t="shared" si="2"/>
@@ -2095,59 +1983,43 @@
         <f t="shared" si="3"/>
         <v>253290.84840685001</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.7158391574077142</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="5"/>
+        <v>-0.24561629943858299</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="12"/>
+        <v>1.5660912330976451</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="13"/>
+        <v>4.2765499505540543</v>
+      </c>
+      <c r="AR9" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.46264535460513306</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="15"/>
+        <v>-2.090981331089766</v>
+      </c>
+      <c r="AT9" s="1">
         <f t="shared" si="16"/>
-        <v>-0.74707545709028933</v>
-      </c>
-      <c r="AN9">
-        <f t="shared" si="9"/>
-        <v>-0.23898524904918481</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP9">
+        <v>1.2259514985731577</v>
+      </c>
+      <c r="AU9">
         <f t="shared" si="17"/>
-        <v>1.5660912330976451</v>
-      </c>
-      <c r="AQ9">
-        <f t="shared" si="18"/>
-        <v>4.2765499505540543</v>
-      </c>
-      <c r="AR9">
-        <f t="shared" si="19"/>
-        <v>-0.49515237919887145</v>
-      </c>
-      <c r="AS9">
-        <f t="shared" si="20"/>
-        <v>-2.1907512788597918</v>
-      </c>
-      <c r="AT9">
-        <f t="shared" si="21"/>
-        <v>1.1670774310619996</v>
-      </c>
-      <c r="AU9">
-        <f t="shared" si="22"/>
-        <v>7.2206071040773159</v>
-      </c>
-      <c r="AV9">
-        <f t="shared" si="10"/>
-        <v>-64.505664173597168</v>
-      </c>
-      <c r="AW9">
-        <f t="shared" si="11"/>
-        <v>-275.86169493205341</v>
-      </c>
-      <c r="AX9">
-        <f t="shared" si="12"/>
-        <v>58081.62352725595</v>
-      </c>
-      <c r="AY9">
-        <f t="shared" si="13"/>
-        <v>285992.71085090889</v>
+        <v>7.6010708250903374</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11.863345736599999</v>
       </c>
@@ -2234,36 +2106,36 @@
         <v>-1.305056091661605</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2149924069721456</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-2.5200484986337504</v>
       </c>
-      <c r="AE10">
-        <f t="shared" si="7"/>
-        <v>8.087888554101534</v>
+      <c r="AE10" s="1">
+        <f t="shared" si="8"/>
+        <v>6.6460091007864488</v>
       </c>
       <c r="AF10">
         <f t="shared" si="1"/>
         <v>-5.1314910201021045</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.48663318774554876</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="8"/>
-        <v>1.1334847981665774</v>
+        <f t="shared" si="9"/>
+        <v>1.1494139425057863</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="14"/>
-        <v>0.4293248471727919</v>
+        <f t="shared" si="11"/>
+        <v>0.42337505205884429</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="15"/>
-        <v>7.5696355831523254</v>
+        <f t="shared" si="10"/>
+        <v>0.39625827099902622</v>
       </c>
       <c r="AK10">
         <f t="shared" si="2"/>
@@ -2273,59 +2145,43 @@
         <f t="shared" si="3"/>
         <v>294678.32969245</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.72828201425592209</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="5"/>
+        <v>-0.24986339313473777</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="12"/>
+        <v>1.5470482432552271</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="13"/>
+        <v>4.1942868771939201</v>
+      </c>
+      <c r="AR10" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.4577317873274549</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="15"/>
+        <v>-2.5487131184172211</v>
+      </c>
+      <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>-0.75051289349062078</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="9"/>
-        <v>-0.24505255976836812</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP10">
+        <v>1.1551349733936016</v>
+      </c>
+      <c r="AU10">
         <f t="shared" si="17"/>
-        <v>1.5470482432552271</v>
-      </c>
-      <c r="AQ10">
-        <f t="shared" si="18"/>
-        <v>4.1942868771939201</v>
-      </c>
-      <c r="AR10">
-        <f t="shared" si="19"/>
-        <v>-0.47185493459602085</v>
-      </c>
-      <c r="AS10">
-        <f t="shared" si="20"/>
-        <v>-2.6626062134558128</v>
-      </c>
-      <c r="AT10">
-        <f t="shared" si="21"/>
-        <v>1.0990627206957622</v>
-      </c>
-      <c r="AU10">
-        <f t="shared" si="22"/>
-        <v>8.3196698247730776</v>
-      </c>
-      <c r="AV10">
-        <f t="shared" si="10"/>
-        <v>-66.405282280144675</v>
-      </c>
-      <c r="AW10">
-        <f t="shared" si="11"/>
-        <v>-278.52280404396873</v>
-      </c>
-      <c r="AX10">
-        <f t="shared" si="12"/>
-        <v>71380.84994451706</v>
-      </c>
-      <c r="AY10">
-        <f t="shared" si="13"/>
-        <v>342872.97963066166</v>
+        <v>8.7562057984839399</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13.559501474499999</v>
       </c>
@@ -2412,36 +2268,36 @@
         <v>-1.742412368716928</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2742085942340333</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.0166209629509613</v>
       </c>
-      <c r="AE11">
-        <f t="shared" si="7"/>
-        <v>9.2382312100566431</v>
+      <c r="AE11" s="1">
+        <f t="shared" si="8"/>
+        <v>7.8091988083083601</v>
       </c>
       <c r="AF11">
         <f t="shared" si="1"/>
         <v>-6.0711259122924277</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.49657246431721092</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="8"/>
-        <v>1.1503426559551091</v>
+        <f t="shared" si="9"/>
+        <v>1.1631897075219113</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="14"/>
-        <v>0.43167352070841503</v>
+        <f t="shared" si="11"/>
+        <v>0.42690582723184634</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="15"/>
-        <v>7.303439964180833</v>
+        <f t="shared" si="10"/>
+        <v>0.41157302641138527</v>
       </c>
       <c r="AK11">
         <f t="shared" si="2"/>
@@ -2451,59 +2307,43 @@
         <f t="shared" si="3"/>
         <v>332296.6699485</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.7385076132787961</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="5"/>
+        <v>-0.25328016369442291</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="12"/>
+        <v>1.5317723436675272</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="13"/>
+        <v>4.129839579838289</v>
+      </c>
+      <c r="AR11" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.43944934290110271</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="15"/>
+        <v>-2.988162461318324</v>
+      </c>
+      <c r="AT11" s="1">
         <f t="shared" si="16"/>
-        <v>-0.75211369593527055</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="9"/>
-        <v>-0.25028733026887784</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP11">
+        <v>1.0677311551069766</v>
+      </c>
+      <c r="AU11">
         <f t="shared" si="17"/>
-        <v>1.5317723436675272</v>
-      </c>
-      <c r="AQ11">
-        <f t="shared" si="18"/>
-        <v>4.129839579838289</v>
-      </c>
-      <c r="AR11">
-        <f t="shared" si="19"/>
-        <v>-0.43821882262410972</v>
-      </c>
-      <c r="AS11">
-        <f t="shared" si="20"/>
-        <v>-3.1008250360799225</v>
-      </c>
-      <c r="AT11">
-        <f t="shared" si="21"/>
-        <v>1.0151626208273172</v>
-      </c>
-      <c r="AU11">
-        <f t="shared" si="22"/>
-        <v>9.3348324456003944</v>
-      </c>
-      <c r="AV11">
-        <f t="shared" si="10"/>
-        <v>-68.916330165703627</v>
-      </c>
-      <c r="AW11">
-        <f t="shared" si="11"/>
-        <v>-284.61338801552625</v>
-      </c>
-      <c r="AX11">
-        <f t="shared" si="12"/>
-        <v>84256.071413104146</v>
-      </c>
-      <c r="AY11">
-        <f t="shared" si="13"/>
-        <v>396879.79354854475</v>
+        <v>9.8239369535909162</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15.2057996294</v>
       </c>
@@ -2590,36 +2430,36 @@
         <v>-2.2197631133044293</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3307418346858286</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-3.550504947990258</v>
       </c>
-      <c r="AE12">
-        <f t="shared" si="7"/>
-        <v>10.393042696659142</v>
+      <c r="AE12" s="1">
+        <f t="shared" si="8"/>
+        <v>8.9757982694071288</v>
       </c>
       <c r="AF12">
         <f t="shared" si="1"/>
         <v>-7.0463239427499289</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.53388398503929668</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="8"/>
-        <v>1.1548114866024992</v>
+        <f t="shared" si="9"/>
+        <v>1.1665994610987687</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="14"/>
-        <v>0.46231267287616296</v>
+        <f t="shared" si="11"/>
+        <v>0.45764120663698477</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="15"/>
-        <v>7.06542338325524</v>
+        <f t="shared" si="10"/>
+        <v>0.42485215982469099</v>
       </c>
       <c r="AK12">
         <f t="shared" si="2"/>
@@ -2629,59 +2469,43 @@
         <f t="shared" si="3"/>
         <v>372704.62721100001</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.74747248674221833</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="5"/>
+        <v>-0.25622124969646054</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="12"/>
+        <v>1.518649905691144</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="13"/>
+        <v>4.0755388173104841</v>
+      </c>
+      <c r="AR12" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.46842469517930785</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="15"/>
+        <v>-3.4565871564976316</v>
+      </c>
+      <c r="AT12" s="1">
         <f t="shared" si="16"/>
-        <v>-0.77326810592548778</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="9"/>
-        <v>-0.25056484511047539</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP12">
+        <v>1.102559288794946</v>
+      </c>
+      <c r="AU12">
         <f t="shared" si="17"/>
-        <v>1.518649905691144</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="18"/>
-        <v>4.0755388173104841</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="19"/>
-        <v>-0.48541830727619434</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="20"/>
-        <v>-3.5862433433561169</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="21"/>
-        <v>1.049978371253129</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="22"/>
-        <v>10.384810816853523</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="10"/>
-        <v>-70.359341836882663</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="11"/>
-        <v>-286.75222881663279</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="12"/>
-        <v>96418.183666751502</v>
-      </c>
-      <c r="AY12">
-        <f t="shared" si="13"/>
-        <v>447111.18667400663</v>
+        <v>10.926496242385863</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16.7294617465</v>
       </c>
@@ -2768,36 +2592,36 @@
         <v>-2.831527778097831</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3737568208773112</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.2052845989751422</v>
       </c>
-      <c r="AE13">
-        <f t="shared" si="7"/>
-        <v>11.595556534490276</v>
+      <c r="AE13" s="1">
+        <f t="shared" si="8"/>
+        <v>10.186988519016422</v>
       </c>
       <c r="AF13">
         <f t="shared" si="1"/>
         <v>-8.15738474899333</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.65477965098488422</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="8"/>
-        <v>1.202513837831134</v>
+        <f t="shared" si="9"/>
+        <v>1.2111902496092934</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="14"/>
-        <v>0.54450903630834835</v>
+        <f t="shared" si="11"/>
+        <v>0.54060842315738877</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="15"/>
-        <v>6.8939868355534699</v>
+        <f t="shared" si="10"/>
+        <v>0.43593164491848863</v>
       </c>
       <c r="AK13">
         <f t="shared" si="2"/>
@@ -2807,59 +2631,43 @@
         <f t="shared" si="3"/>
         <v>403312.17996999994</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.75502341467684686</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="5"/>
+        <v>-0.25865911202134573</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="12"/>
+        <v>1.5077885627325758</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="13"/>
+        <v>4.0313168598151412</v>
+      </c>
+      <c r="AR13" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.39051316874295544</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="15"/>
+        <v>-3.8471003252405871</v>
+      </c>
+      <c r="AT13" s="1">
         <f t="shared" si="16"/>
-        <v>-0.83262739164577426</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="9"/>
-        <v>-0.24226450108935621</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP13">
+        <v>0.89581284886068413</v>
+      </c>
+      <c r="AU13">
         <f t="shared" si="17"/>
-        <v>1.5077885627325758</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="18"/>
-        <v>4.0313168598151412</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="19"/>
-        <v>-0.46818294318063036</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="20"/>
-        <v>-4.0544262865367475</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="21"/>
-        <v>0.85982584670184348</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="22"/>
-        <v>11.244636663555367</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="10"/>
-        <v>-73.80592460395016</v>
-      </c>
-      <c r="AW13">
-        <f t="shared" si="11"/>
-        <v>-297.53506821014946</v>
-      </c>
-      <c r="AX13">
-        <f t="shared" si="12"/>
-        <v>109209.16942231833</v>
-      </c>
-      <c r="AY13">
-        <f t="shared" si="13"/>
-        <v>499244.60947494529</v>
+        <v>11.822309091246547</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>18.081688816100002</v>
       </c>
@@ -2946,36 +2754,36 @@
         <v>-3.327809748108379</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4086099955569944</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4.7364197436653734</v>
       </c>
-      <c r="AE14">
-        <f t="shared" si="7"/>
-        <v>12.760909153627127</v>
+      <c r="AE14" s="1">
+        <f t="shared" si="8"/>
+        <v>11.35919521233153</v>
       </c>
       <c r="AF14">
         <f t="shared" si="1"/>
         <v>-9.1536293669038784</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.53113514469023126</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="8"/>
-        <v>1.1653526191368506</v>
+        <f t="shared" si="9"/>
+        <v>1.1722066933151076</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="14"/>
-        <v>0.45577204355848155</v>
+        <f t="shared" si="11"/>
+        <v>0.45310707379441123</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="15"/>
-        <v>6.7607788586618058</v>
+        <f t="shared" si="10"/>
+        <v>0.44441327087751592</v>
       </c>
       <c r="AK14">
         <f t="shared" si="2"/>
@@ -2985,59 +2793,43 @@
         <f t="shared" si="3"/>
         <v>428853.21413350001</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.76084808577213592</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="5"/>
+        <v>-0.26051511681427553</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="12"/>
+        <v>1.4995276395959829</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="13"/>
+        <v>3.9981111531948916</v>
+      </c>
+      <c r="AR14" s="1">
+        <f t="shared" si="14"/>
+        <v>-0.33919188878900025</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="15"/>
+        <v>-4.1862922140295877</v>
+      </c>
+      <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>-0.76870943840029182</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="9"/>
-        <v>-0.25874620982834956</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP14">
+        <v>0.76323528349918313</v>
+      </c>
+      <c r="AU14">
         <f t="shared" si="17"/>
-        <v>1.4995276395959829</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="18"/>
-        <v>3.9981111531948916</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="19"/>
-        <v>-0.33058992975457674</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="20"/>
-        <v>-4.3850162162913247</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="21"/>
-        <v>0.72534051710031588</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="22"/>
-        <v>11.969977180655683</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="10"/>
-        <v>-73.075519871729767</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="11"/>
-        <v>-292.16405102467763</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="12"/>
-        <v>119764.49630947626</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" si="13"/>
-        <v>541798.90324027929</v>
+        <v>12.58554437474573</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18.802809787099999</v>
       </c>
@@ -3124,36 +2916,36 @@
         <v>-4.1379641983745552</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4058753532760144</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-5.5438395516505699</v>
       </c>
-      <c r="AE15">
-        <f t="shared" si="7"/>
-        <v>14.036175153849184</v>
+      <c r="AE15" s="1">
+        <f t="shared" si="8"/>
+        <v>12.633928963845079</v>
       </c>
       <c r="AF15">
         <f t="shared" si="1"/>
         <v>-10.466391075570055</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.80741980798519641</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="8"/>
-        <v>1.2752660002220573</v>
+        <f t="shared" si="9"/>
+        <v>1.2747337515135495</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="14"/>
-        <v>0.63313834748562525</v>
+        <f t="shared" si="11"/>
+        <v>0.63340270627220008</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="15"/>
-        <v>6.7710533255857257</v>
+        <f t="shared" si="10"/>
+        <v>0.44784531836997016</v>
       </c>
       <c r="AK15">
         <f t="shared" si="2"/>
@@ -3163,59 +2955,43 @@
         <f t="shared" si="3"/>
         <v>414015.90840900003</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.7632160120976309</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="5"/>
+        <v>-0.26126355037376092</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="12"/>
+        <v>1.4961981301422862</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="13"/>
+        <v>3.9848309676936089</v>
+      </c>
+      <c r="AR15" s="1">
+        <f t="shared" si="14"/>
+        <v>2.737212558653072E-2</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="15"/>
+        <v>-4.1589200884430566</v>
+      </c>
+      <c r="AT15" s="1">
         <f t="shared" si="16"/>
-        <v>-0.90125180963557405</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="9"/>
-        <v>-0.23329065237838373</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP15">
+        <v>-6.1119597467620052E-2</v>
+      </c>
+      <c r="AU15">
         <f t="shared" si="17"/>
-        <v>1.4961981301422862</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="18"/>
-        <v>3.9848309676936089</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="19"/>
-        <v>3.7570783926297709E-2</v>
-      </c>
-      <c r="AS15">
-        <f t="shared" si="20"/>
-        <v>-4.3474454323650269</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="21"/>
-        <v>-5.9340559729958095E-2</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="22"/>
-        <v>11.910636620925725</v>
-      </c>
-      <c r="AV15">
-        <f t="shared" si="10"/>
-        <v>-78.639269065837425</v>
-      </c>
-      <c r="AW15">
-        <f t="shared" si="11"/>
-        <v>-313.36419465033902</v>
-      </c>
-      <c r="AX15">
-        <f t="shared" si="12"/>
-        <v>128855.68739666708</v>
-      </c>
-      <c r="AY15">
-        <f t="shared" si="13"/>
-        <v>578147.54006588378</v>
+        <v>12.52442477727811</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18.943144225699999</v>
       </c>
@@ -3302,36 +3078,36 @@
         <v>-5.6187271480327317</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3781554466226915</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-6.9968825946554229</v>
       </c>
-      <c r="AE16">
-        <f t="shared" si="7"/>
-        <v>15.527784505235244</v>
+      <c r="AE16" s="1">
+        <f t="shared" si="8"/>
+        <v>14.120090034933718</v>
       </c>
       <c r="AF16">
         <f t="shared" si="1"/>
         <v>-12.446164875978232</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.4530430430048531</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="8"/>
-        <v>1.4916093513860602</v>
+        <f t="shared" si="9"/>
+        <v>1.4861610710886382</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="14"/>
-        <v>0.97414449812521631</v>
+        <f t="shared" si="11"/>
+        <v>0.97771572090801329</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="15"/>
-        <v>6.8769010888392366</v>
+        <f t="shared" si="10"/>
+        <v>0.44458408134806887</v>
       </c>
       <c r="AK16">
         <f t="shared" si="2"/>
@@ -3341,59 +3117,43 @@
         <f t="shared" si="3"/>
         <v>376239.58324000001</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.76096578531681969</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="5"/>
+        <v>-0.26055240141687014</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="12"/>
+        <v>1.4993617521296954</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="13"/>
+        <v>3.9974480943510118</v>
+      </c>
+      <c r="AR16" s="1">
+        <f t="shared" si="14"/>
+        <v>0.27015673322133371</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="15"/>
+        <v>-3.8887633552217231</v>
+      </c>
+      <c r="AT16" s="1">
         <f t="shared" si="16"/>
-        <v>-1.2212837963199121</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="9"/>
-        <v>-0.18607119346244455</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP16">
+        <v>-0.60766173274167579</v>
+      </c>
+      <c r="AU16">
         <f t="shared" si="17"/>
-        <v>1.4993617521296954</v>
-      </c>
-      <c r="AQ16">
-        <f t="shared" si="18"/>
-        <v>3.9974480943510118</v>
-      </c>
-      <c r="AR16">
-        <f t="shared" si="19"/>
-        <v>0.61852476994775518</v>
-      </c>
-      <c r="AS16">
-        <f t="shared" si="20"/>
-        <v>-3.7289206624172717</v>
-      </c>
-      <c r="AT16">
-        <f t="shared" si="21"/>
-        <v>-0.6349415011203503</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="22"/>
-        <v>11.275695119805375</v>
-      </c>
-      <c r="AV16">
-        <f t="shared" si="10"/>
-        <v>-85.090608076158134</v>
-      </c>
-      <c r="AW16">
-        <f t="shared" si="11"/>
-        <v>-340.14528910120708</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="12"/>
-        <v>128117.38901675565</v>
-      </c>
-      <c r="AY16">
-        <f t="shared" si="13"/>
-        <v>575204.47221923526</v>
+        <v>11.916763044536435</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>19.166691396400001</v>
       </c>
@@ -3480,36 +3240,36 @@
         <v>-6.1987397390733445</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3723580504668411</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7.5710977895401861</v>
       </c>
-      <c r="AE17">
-        <f t="shared" si="7"/>
-        <v>16.718768563182113</v>
+      <c r="AE17" s="1">
+        <f t="shared" si="8"/>
+        <v>15.309922235242334</v>
       </c>
       <c r="AF17">
         <f t="shared" si="1"/>
         <v>-13.525000730818844</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.57421519488476314</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="8"/>
-        <v>1.1909840579468689</v>
+        <f t="shared" si="9"/>
+        <v>1.1898322003086168</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="14"/>
-        <v>0.48213508069507638</v>
+        <f t="shared" si="11"/>
+        <v>0.48260182800215368</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="15"/>
-        <v>6.8994370550261017</v>
+        <f t="shared" si="10"/>
+        <v>0.44093453510387404</v>
       </c>
       <c r="AK17">
         <f t="shared" si="2"/>
@@ -3519,59 +3279,43 @@
         <f t="shared" si="3"/>
         <v>364252.63082599995</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.75845442866881008</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="5"/>
+        <v>-0.2597549708912657</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="12"/>
+        <v>1.5029102215241579</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="13"/>
+        <v>4.0116635150383066</v>
+      </c>
+      <c r="AR17" s="1">
+        <f t="shared" si="14"/>
+        <v>5.4843058449682514E-2</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="15"/>
+        <v>-3.8339202967720407</v>
+      </c>
+      <c r="AT17" s="1">
         <f t="shared" si="16"/>
-        <v>-0.78722852266525101</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="9"/>
-        <v>-0.25340686285032815</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP17">
+        <v>-0.12437914040178948</v>
+      </c>
+      <c r="AU17">
         <f t="shared" si="17"/>
-        <v>1.5029102215241579</v>
-      </c>
-      <c r="AQ17">
-        <f t="shared" si="18"/>
-        <v>4.0116635150383066</v>
-      </c>
-      <c r="AR17">
-        <f t="shared" si="19"/>
-        <v>5.7147026988091279E-2</v>
-      </c>
-      <c r="AS17">
-        <f t="shared" si="20"/>
-        <v>-3.6717736354291803</v>
-      </c>
-      <c r="AT17">
-        <f t="shared" si="21"/>
-        <v>-0.11852907883347651</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="22"/>
-        <v>11.157166040971898</v>
-      </c>
-      <c r="AV17">
-        <f t="shared" si="10"/>
-        <v>-74.127592411744374</v>
-      </c>
-      <c r="AW17">
-        <f t="shared" si="11"/>
-        <v>-297.37495793582519</v>
-      </c>
-      <c r="AX17">
-        <f t="shared" si="12"/>
-        <v>120884.15523613225</v>
-      </c>
-      <c r="AY17">
-        <f t="shared" si="13"/>
-        <v>546288.94187197613</v>
+        <v>11.792383904134645</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18.9103806629</v>
       </c>
@@ -3658,36 +3402,36 @@
         <v>-7.4986021185680096</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3320275814936875</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.8306297000616976</v>
       </c>
-      <c r="AE18">
-        <f t="shared" si="7"/>
-        <v>18.156405220313669</v>
+      <c r="AE18" s="1">
+        <f t="shared" si="8"/>
+        <v>16.739423721972635</v>
       </c>
       <c r="AF18">
         <f t="shared" si="1"/>
         <v>-15.327037708963509</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.2595319105215115</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="8"/>
-        <v>1.4376366571315558</v>
+        <f t="shared" si="9"/>
+        <v>1.4295014867303006</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="14"/>
-        <v>0.87611282327385298</v>
+        <f t="shared" si="11"/>
+        <v>0.88109870623670306</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="15"/>
-        <v>7.0601816983666748</v>
+        <f t="shared" si="10"/>
+        <v>0.43591454550161352</v>
       </c>
       <c r="AK18">
         <f t="shared" si="2"/>
@@ -3697,59 +3441,43 @@
         <f t="shared" si="3"/>
         <v>321106.96157449996</v>
       </c>
-      <c r="AM18">
+      <c r="AM18" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.75501171074672224</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="5"/>
+        <v>-0.25865536113326543</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>23529.166649066847</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="12"/>
+        <v>1.5078052642379274</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="13"/>
+        <v>4.0313843657970336</v>
+      </c>
+      <c r="AR18" s="1">
+        <f t="shared" si="14"/>
+        <v>0.36609684741260817</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="15"/>
+        <v>-3.4678234493594324</v>
+      </c>
+      <c r="AT18" s="1">
         <f t="shared" si="16"/>
-        <v>-1.1187566125506243</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="9"/>
-        <v>-0.19636827733720949</v>
-      </c>
-      <c r="AO18" s="1">
-        <v>37174.366906725903</v>
-      </c>
-      <c r="AP18">
+        <v>-0.83983627339467393</v>
+      </c>
+      <c r="AU18">
         <f t="shared" si="17"/>
-        <v>1.5078052642379274</v>
-      </c>
-      <c r="AQ18">
-        <f t="shared" si="18"/>
-        <v>4.0313843657970336</v>
-      </c>
-      <c r="AR18">
-        <f t="shared" si="19"/>
-        <v>0.7496838720915</v>
-      </c>
-      <c r="AS18">
-        <f t="shared" si="20"/>
-        <v>-2.9220897633376803</v>
-      </c>
-      <c r="AT18">
-        <f t="shared" si="21"/>
-        <v>-0.85569329905489322</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="22"/>
-        <v>10.301472741917005</v>
-      </c>
-      <c r="AV18">
-        <f t="shared" si="10"/>
-        <v>-83.120826447843399</v>
-      </c>
-      <c r="AW18">
-        <f t="shared" si="11"/>
-        <v>-335.09200021396447</v>
-      </c>
-      <c r="AX18">
-        <f t="shared" si="12"/>
-        <v>119399.69720706707</v>
-      </c>
-      <c r="AY18">
-        <f t="shared" si="13"/>
-        <v>540332.15654375625</v>
+        <v>10.952547630739971</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18.596284598899999</v>
       </c>
@@ -3836,7 +3564,7 @@
         <v>-8.3865018885030942</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18.671151548299999</v>
       </c>
@@ -3923,7 +3651,7 @@
         <v>-9.2577310762631306</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18.5911722737</v>
       </c>
@@ -4010,7 +3738,7 @@
         <v>-9.9604393099804724</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17.981935276200002</v>
       </c>

--- a/SMP_PE_ani_e&p.xlsx
+++ b/SMP_PE_ani_e&p.xlsx
@@ -579,7 +579,7 @@
   <dimension ref="A1:AU22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3:AO18"/>
+      <selection activeCell="AO3" sqref="AO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1020,7 @@
         <v>-0.15365881468008247</v>
       </c>
       <c r="AO3" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP3" s="1">
         <f>(AK3*1.35*(AK3/3255000)^-0.0723-AK2*1.35*(AK2/3255000)^-0.0723)/(AK3-AK2)</f>
@@ -1032,19 +1032,19 @@
       </c>
       <c r="AR3" s="1">
         <f>(1+2*AM3)*(AK3-AK2)*(1-AP3/3)/(3*AN3*AO3*AM3)</f>
-        <v>3.5106196281815254E-3</v>
+        <v>2.8682409254225123E-3</v>
       </c>
       <c r="AS3" s="1">
         <f>(AS2+AR3)</f>
-        <v>3.5106196281815254E-3</v>
+        <v>2.8682409254225123E-3</v>
       </c>
       <c r="AT3" s="1">
         <f>2*(1-AM3)*(AK3-AK2)*(1-AP3/3)/(9*AN3*AO3*AM3)</f>
-        <v>0.29796729341295891</v>
+        <v>0.24344476927770284</v>
       </c>
       <c r="AU3" s="1">
         <f>AU2+AT3</f>
-        <v>0.29796729341295891</v>
+        <v>0.24344476927770284</v>
       </c>
     </row>
     <row r="4" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>-0.18607386486833286</v>
       </c>
       <c r="AO4" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP4" s="2">
         <f t="shared" ref="AP4:AP18" si="12">(AK4*1.35*(AK4/3255000)^-0.0723-AK3*1.35*(AK3/3255000)^-0.0723)/(AK4-AK3)</f>
@@ -1194,19 +1194,19 @@
       </c>
       <c r="AR4" s="1">
         <f t="shared" ref="AR4:AR18" si="14">(1+2*AM4)*(AK4-AK3)*(1-AP4/3)/(3*AN4*AO4*AM4)</f>
-        <v>-0.12021609993501292</v>
+        <v>-9.8218768835088788E-2</v>
       </c>
       <c r="AS4" s="2">
         <f t="shared" ref="AS4:AS18" si="15">AS3+AR4</f>
-        <v>-0.11670548030683139</v>
+        <v>-9.5350527909666277E-2</v>
       </c>
       <c r="AT4" s="1">
         <f t="shared" ref="AT4:AT18" si="16">2*(1-AM4)*(AK4-AK3)*(1-AP4/3)/(9*AN4*AO4*AM4)</f>
-        <v>0.9732790577488255</v>
+        <v>0.79518692451960948</v>
       </c>
       <c r="AU4" s="2">
         <f>AU3+AT4</f>
-        <v>1.2712463511617844</v>
+        <v>1.0386316937973123</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>-0.20939966318642572</v>
       </c>
       <c r="AO5" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP5">
         <f t="shared" si="12"/>
@@ -1356,19 +1356,19 @@
       </c>
       <c r="AR5" s="1">
         <f t="shared" si="14"/>
-        <v>-0.26549509390935833</v>
+        <v>-0.21691438392719525</v>
       </c>
       <c r="AS5">
         <f t="shared" si="15"/>
-        <v>-0.38220057421618969</v>
+        <v>-0.31226491183686156</v>
       </c>
       <c r="AT5" s="1">
         <f t="shared" si="16"/>
-        <v>1.1994298654238473</v>
+        <v>0.97995630160728064</v>
       </c>
       <c r="AU5">
         <f>AU4+AT5</f>
-        <v>2.4706762165856317</v>
+        <v>2.0185879954045931</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
@@ -1506,7 +1506,7 @@
         <v>-0.22338202077670638</v>
       </c>
       <c r="AO6" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP6">
         <f t="shared" si="12"/>
@@ -1518,19 +1518,19 @@
       </c>
       <c r="AR6" s="1">
         <f t="shared" si="14"/>
-        <v>-0.35661285901444573</v>
+        <v>-0.29135927701942205</v>
       </c>
       <c r="AS6">
         <f t="shared" si="15"/>
-        <v>-0.73881343323063542</v>
+        <v>-0.60362418885628366</v>
       </c>
       <c r="AT6" s="1">
         <f t="shared" si="16"/>
-        <v>1.2702070171513755</v>
+        <v>1.0377825387592932</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU18" si="17">AU5+AT6</f>
-        <v>3.7408832337370073</v>
+        <v>3.0563705341638863</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -1668,7 +1668,7 @@
         <v>-0.23291321205215409</v>
       </c>
       <c r="AO7" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP7">
         <f t="shared" si="12"/>
@@ -1680,19 +1680,19 @@
       </c>
       <c r="AR7" s="1">
         <f t="shared" si="14"/>
-        <v>-0.41703596138357107</v>
+        <v>-0.34072606505447095</v>
       </c>
       <c r="AS7">
         <f t="shared" si="15"/>
-        <v>-1.1558493946142065</v>
+        <v>-0.94435025391075467</v>
       </c>
       <c r="AT7" s="1">
         <f t="shared" si="16"/>
-        <v>1.2960469565141124</v>
+        <v>1.0588942453639276</v>
       </c>
       <c r="AU7">
         <f t="shared" si="17"/>
-        <v>5.0369301902511197</v>
+        <v>4.1152647795278137</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>-0.2400990567088373</v>
       </c>
       <c r="AO8" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP8">
         <f t="shared" si="12"/>
@@ -1842,19 +1842,19 @@
       </c>
       <c r="AR8" s="1">
         <f t="shared" si="14"/>
-        <v>-0.47248658187042636</v>
+        <v>-0.38603024376518325</v>
       </c>
       <c r="AS8">
         <f t="shared" si="15"/>
-        <v>-1.628335976484633</v>
+        <v>-1.3303804976759379</v>
       </c>
       <c r="AT8" s="1">
         <f t="shared" si="16"/>
-        <v>1.3381891362660605</v>
+        <v>1.093325182763335</v>
       </c>
       <c r="AU8">
         <f t="shared" si="17"/>
-        <v>6.3751193265171802</v>
+        <v>5.2085899622911489</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
         <v>-0.24561629943858299</v>
       </c>
       <c r="AO9" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP9">
         <f t="shared" si="12"/>
@@ -2004,19 +2004,19 @@
       </c>
       <c r="AR9" s="1">
         <f t="shared" si="14"/>
-        <v>-0.46264535460513306</v>
+        <v>-0.37798977974791814</v>
       </c>
       <c r="AS9">
         <f t="shared" si="15"/>
-        <v>-2.090981331089766</v>
+        <v>-1.7083702774238561</v>
       </c>
       <c r="AT9" s="1">
         <f t="shared" si="16"/>
-        <v>1.2259514985731577</v>
+        <v>1.0016249645969246</v>
       </c>
       <c r="AU9">
         <f t="shared" si="17"/>
-        <v>7.6010708250903374</v>
+        <v>6.2102149268880735</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -2154,7 +2154,7 @@
         <v>-0.24986339313473777</v>
       </c>
       <c r="AO10" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP10">
         <f t="shared" si="12"/>
@@ -2166,19 +2166,19 @@
       </c>
       <c r="AR10" s="1">
         <f t="shared" si="14"/>
-        <v>-0.4577317873274549</v>
+        <v>-0.37397530474113611</v>
       </c>
       <c r="AS10">
         <f t="shared" si="15"/>
-        <v>-2.5487131184172211</v>
+        <v>-2.0823455821649923</v>
       </c>
       <c r="AT10" s="1">
         <f t="shared" si="16"/>
-        <v>1.1551349733936016</v>
+        <v>0.94376655860908198</v>
       </c>
       <c r="AU10">
         <f t="shared" si="17"/>
-        <v>8.7562057984839399</v>
+        <v>7.1539814854971553</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>-0.25328016369442291</v>
       </c>
       <c r="AO11" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP11">
         <f t="shared" si="12"/>
@@ -2328,19 +2328,19 @@
       </c>
       <c r="AR11" s="1">
         <f t="shared" si="14"/>
-        <v>-0.43944934290110271</v>
+        <v>-0.35903821075935693</v>
       </c>
       <c r="AS11">
         <f t="shared" si="15"/>
-        <v>-2.988162461318324</v>
+        <v>-2.4413837929243494</v>
       </c>
       <c r="AT11" s="1">
         <f t="shared" si="16"/>
-        <v>1.0677311551069766</v>
+        <v>0.87235602850338989</v>
       </c>
       <c r="AU11">
         <f t="shared" si="17"/>
-        <v>9.8239369535909162</v>
+        <v>8.0263375140005451</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
@@ -2478,7 +2478,7 @@
         <v>-0.25622124969646054</v>
       </c>
       <c r="AO12" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP12">
         <f t="shared" si="12"/>
@@ -2490,19 +2490,19 @@
       </c>
       <c r="AR12" s="1">
         <f t="shared" si="14"/>
-        <v>-0.46842469517930785</v>
+        <v>-0.38271160749129846</v>
       </c>
       <c r="AS12">
         <f t="shared" si="15"/>
-        <v>-3.4565871564976316</v>
+        <v>-2.824095400415648</v>
       </c>
       <c r="AT12" s="1">
         <f t="shared" si="16"/>
-        <v>1.102559288794946</v>
+        <v>0.90081125549466168</v>
       </c>
       <c r="AU12">
         <f t="shared" si="17"/>
-        <v>10.926496242385863</v>
+        <v>8.9271487694952061</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>-0.25865911202134573</v>
       </c>
       <c r="AO13" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP13">
         <f t="shared" si="12"/>
@@ -2652,19 +2652,19 @@
       </c>
       <c r="AR13" s="1">
         <f t="shared" si="14"/>
-        <v>-0.39051316874295544</v>
+        <v>-0.31905645473906497</v>
       </c>
       <c r="AS13">
         <f t="shared" si="15"/>
-        <v>-3.8471003252405871</v>
+        <v>-3.1431518551547128</v>
       </c>
       <c r="AT13" s="1">
         <f t="shared" si="16"/>
-        <v>0.89581284886068413</v>
+        <v>0.73189560441000534</v>
       </c>
       <c r="AU13">
         <f t="shared" si="17"/>
-        <v>11.822309091246547</v>
+        <v>9.6590443739052105</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.25">
@@ -2802,7 +2802,7 @@
         <v>-0.26051511681427553</v>
       </c>
       <c r="AO14" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP14">
         <f t="shared" si="12"/>
@@ -2814,19 +2814,19 @@
       </c>
       <c r="AR14" s="1">
         <f t="shared" si="14"/>
-        <v>-0.33919188878900025</v>
+        <v>-0.27712602333392589</v>
       </c>
       <c r="AS14">
         <f t="shared" si="15"/>
-        <v>-4.1862922140295877</v>
+        <v>-3.4202778784886387</v>
       </c>
       <c r="AT14" s="1">
         <f t="shared" si="16"/>
-        <v>0.76323528349918313</v>
+        <v>0.62357729054023725</v>
       </c>
       <c r="AU14">
         <f t="shared" si="17"/>
-        <v>12.58554437474573</v>
+        <v>10.282621664445447</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>-0.26126355037376092</v>
       </c>
       <c r="AO15" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP15">
         <f t="shared" si="12"/>
@@ -2976,19 +2976,19 @@
       </c>
       <c r="AR15" s="1">
         <f t="shared" si="14"/>
-        <v>2.737212558653072E-2</v>
+        <v>2.2363530982637277E-2</v>
       </c>
       <c r="AS15">
         <f t="shared" si="15"/>
-        <v>-4.1589200884430566</v>
+        <v>-3.3979143475060014</v>
       </c>
       <c r="AT15" s="1">
         <f t="shared" si="16"/>
-        <v>-6.1119597467620052E-2</v>
+        <v>-4.9935837364637824E-2</v>
       </c>
       <c r="AU15">
         <f t="shared" si="17"/>
-        <v>12.52442477727811</v>
+        <v>10.232685827080809</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -3126,7 +3126,7 @@
         <v>-0.26055240141687014</v>
       </c>
       <c r="AO16" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP16">
         <f t="shared" si="12"/>
@@ -3138,19 +3138,19 @@
       </c>
       <c r="AR16" s="1">
         <f t="shared" si="14"/>
-        <v>0.27015673322133371</v>
+        <v>0.22072302914379252</v>
       </c>
       <c r="AS16">
         <f t="shared" si="15"/>
-        <v>-3.8887633552217231</v>
+        <v>-3.1771913183622087</v>
       </c>
       <c r="AT16" s="1">
         <f t="shared" si="16"/>
-        <v>-0.60766173274167579</v>
+        <v>-0.49647083286139182</v>
       </c>
       <c r="AU16">
         <f t="shared" si="17"/>
-        <v>11.916763044536435</v>
+        <v>9.7362149942194165</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -3288,7 +3288,7 @@
         <v>-0.2597549708912657</v>
       </c>
       <c r="AO17" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP17">
         <f t="shared" si="12"/>
@@ -3300,19 +3300,19 @@
       </c>
       <c r="AR17" s="1">
         <f t="shared" si="14"/>
-        <v>5.4843058449682514E-2</v>
+        <v>4.4807789330967782E-2</v>
       </c>
       <c r="AS17">
         <f t="shared" si="15"/>
-        <v>-3.8339202967720407</v>
+        <v>-3.132383529031241</v>
       </c>
       <c r="AT17" s="1">
         <f t="shared" si="16"/>
-        <v>-0.12437914040178948</v>
+        <v>-0.10162004960761829</v>
       </c>
       <c r="AU17">
         <f t="shared" si="17"/>
-        <v>11.792383904134645</v>
+        <v>9.6345949446117984</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
         <v>-0.25865536113326543</v>
       </c>
       <c r="AO18" s="1">
-        <v>23529.166649066847</v>
+        <v>28798.820050585658</v>
       </c>
       <c r="AP18">
         <f t="shared" si="12"/>
@@ -3462,19 +3462,19 @@
       </c>
       <c r="AR18" s="1">
         <f t="shared" si="14"/>
-        <v>0.36609684741260817</v>
+        <v>0.29910787029950137</v>
       </c>
       <c r="AS18">
         <f t="shared" si="15"/>
-        <v>-3.4678234493594324</v>
+        <v>-2.8332756587317398</v>
       </c>
       <c r="AT18" s="1">
         <f t="shared" si="16"/>
-        <v>-0.83983627339467393</v>
+        <v>-0.68616171078969912</v>
       </c>
       <c r="AU18">
         <f t="shared" si="17"/>
-        <v>10.952547630739971</v>
+        <v>8.9484332338220991</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
